--- a/public/file_import/students.xlsx
+++ b/public/file_import/students.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23005"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5337E2E4-AE02-4576-A928-4DE16AEF4407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E289991-18CA-4E0F-B2B0-DE6912430306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,13 +258,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,7 +548,7 @@
   <dimension ref="A1:AU122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -739,51 +742,51 @@
     </row>
     <row r="2" spans="1:47" ht="14.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
       <c r="AM2" s="7"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
       <c r="AU2" s="7"/>
     </row>
     <row r="3" spans="1:47" ht="14.25">
@@ -794,45 +797,45 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
       <c r="AM3" s="7"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
       <c r="AU3" s="7"/>
     </row>
     <row r="4" spans="1:47" ht="14.25">
@@ -842,25 +845,25 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -874,7 +877,7 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
-      <c r="AM4" s="7"/>
+      <c r="AM4" s="6"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
@@ -882,7 +885,7 @@
       <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="7"/>
+      <c r="AU4" s="6"/>
     </row>
     <row r="5" spans="1:47" ht="14.25">
       <c r="A5" s="3"/>
@@ -891,47 +894,47 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
-      <c r="AU5" s="7"/>
+      <c r="AU5" s="6"/>
     </row>
     <row r="6" spans="1:47" ht="14.25">
       <c r="A6" s="3"/>
@@ -940,25 +943,25 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -966,21 +969,21 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
-      <c r="AG6" s="7"/>
+      <c r="AG6" s="6"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
-      <c r="AM6" s="7"/>
+      <c r="AM6" s="6"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="7"/>
+      <c r="AO6" s="6"/>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
-      <c r="AU6" s="7"/>
+      <c r="AU6" s="6"/>
     </row>
     <row r="7" spans="1:47" ht="14.25">
       <c r="A7" s="3"/>
@@ -989,39 +992,39 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="7"/>
+      <c r="AF7" s="6"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-      <c r="AM7" s="7"/>
+      <c r="AM7" s="6"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
@@ -1029,7 +1032,7 @@
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
-      <c r="AU7" s="7"/>
+      <c r="AU7" s="6"/>
     </row>
     <row r="8" spans="1:47" ht="14.25">
       <c r="A8" s="3"/>
@@ -1038,47 +1041,47 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="7"/>
+      <c r="AF8" s="6"/>
       <c r="AG8" s="3"/>
-      <c r="AH8" s="7"/>
+      <c r="AH8" s="6"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="7"/>
+      <c r="AP8" s="6"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
-      <c r="AU8" s="7"/>
+      <c r="AU8" s="6"/>
     </row>
     <row r="9" spans="1:47" ht="14.25">
       <c r="A9" s="3"/>
@@ -1087,47 +1090,47 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="6"/>
+      <c r="AD9" s="5"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="7"/>
+      <c r="AF9" s="6"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
-      <c r="AM9" s="7"/>
+      <c r="AM9" s="6"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="6"/>
+      <c r="AO9" s="5"/>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
-      <c r="AU9" s="7"/>
+      <c r="AU9" s="6"/>
     </row>
     <row r="10" spans="1:47" ht="14.25">
       <c r="A10" s="3"/>
@@ -1136,25 +1139,25 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -1168,7 +1171,7 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
-      <c r="AM10" s="7"/>
+      <c r="AM10" s="6"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
@@ -1176,7 +1179,7 @@
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
-      <c r="AU10" s="7"/>
+      <c r="AU10" s="6"/>
     </row>
     <row r="11" spans="1:47" ht="14.25">
       <c r="A11" s="3"/>
@@ -1185,25 +1188,25 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -1217,7 +1220,7 @@
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
-      <c r="AM11" s="7"/>
+      <c r="AM11" s="6"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
@@ -1225,7 +1228,7 @@
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
-      <c r="AU11" s="7"/>
+      <c r="AU11" s="6"/>
     </row>
     <row r="12" spans="1:47" ht="14.25">
       <c r="A12" s="3"/>
@@ -1234,25 +1237,25 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -1266,7 +1269,7 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
-      <c r="AM12" s="7"/>
+      <c r="AM12" s="6"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
@@ -1274,7 +1277,7 @@
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
-      <c r="AU12" s="7"/>
+      <c r="AU12" s="6"/>
     </row>
     <row r="13" spans="1:47" ht="14.25">
       <c r="A13" s="3"/>
@@ -1283,25 +1286,25 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
@@ -1309,21 +1312,21 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="6"/>
+      <c r="AG13" s="5"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
-      <c r="AM13" s="7"/>
+      <c r="AM13" s="6"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="6"/>
+      <c r="AO13" s="5"/>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
-      <c r="AU13" s="7"/>
+      <c r="AU13" s="6"/>
     </row>
     <row r="14" spans="1:47" ht="14.25">
       <c r="A14" s="3"/>
@@ -1332,25 +1335,25 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -1364,7 +1367,7 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
-      <c r="AM14" s="7"/>
+      <c r="AM14" s="6"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
@@ -1372,7 +1375,7 @@
       <c r="AR14" s="3"/>
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
-      <c r="AU14" s="7"/>
+      <c r="AU14" s="6"/>
     </row>
     <row r="15" spans="1:47" ht="14.25">
       <c r="A15" s="3"/>
@@ -1381,47 +1384,47 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="7"/>
+      <c r="AF15" s="6"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
-      <c r="AU15" s="7"/>
+      <c r="AU15" s="6"/>
     </row>
     <row r="16" spans="1:47" ht="14.25">
       <c r="A16" s="3"/>
@@ -1430,47 +1433,47 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="7"/>
+      <c r="AF16" s="6"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
-      <c r="AU16" s="7"/>
+      <c r="AU16" s="6"/>
     </row>
     <row r="17" spans="1:47" ht="14.25">
       <c r="A17" s="3"/>
@@ -1479,25 +1482,25 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="7"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
@@ -1511,7 +1514,7 @@
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
-      <c r="AM17" s="7"/>
+      <c r="AM17" s="6"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
@@ -1519,7 +1522,7 @@
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
-      <c r="AU17" s="7"/>
+      <c r="AU17" s="6"/>
     </row>
     <row r="18" spans="1:47" ht="14.25">
       <c r="A18" s="3"/>
@@ -1528,25 +1531,25 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -1555,20 +1558,20 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-      <c r="AH18" s="7"/>
+      <c r="AH18" s="6"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
-      <c r="AM18" s="7"/>
+      <c r="AM18" s="6"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="7"/>
+      <c r="AP18" s="6"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
-      <c r="AU18" s="7"/>
+      <c r="AU18" s="6"/>
     </row>
     <row r="19" spans="1:47" ht="14.25">
       <c r="A19" s="3"/>
@@ -1577,25 +1580,25 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="7"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -1603,21 +1606,21 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="6"/>
+      <c r="AG19" s="5"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
-      <c r="AM19" s="7"/>
+      <c r="AM19" s="6"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="6"/>
+      <c r="AO19" s="5"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
-      <c r="AU19" s="7"/>
+      <c r="AU19" s="6"/>
     </row>
     <row r="20" spans="1:47" ht="14.25">
       <c r="A20" s="3"/>
@@ -1626,25 +1629,25 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="7"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -1658,7 +1661,7 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
-      <c r="AM20" s="7"/>
+      <c r="AM20" s="6"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
@@ -1666,7 +1669,7 @@
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
-      <c r="AU20" s="7"/>
+      <c r="AU20" s="6"/>
     </row>
     <row r="21" spans="1:47" ht="14.25">
       <c r="A21" s="3"/>
@@ -1675,25 +1678,25 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -1702,12 +1705,12 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-      <c r="AH21" s="7"/>
+      <c r="AH21" s="6"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
-      <c r="AM21" s="7"/>
+      <c r="AM21" s="6"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
@@ -1715,7 +1718,7 @@
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
-      <c r="AU21" s="7"/>
+      <c r="AU21" s="6"/>
     </row>
     <row r="22" spans="1:47" ht="14.25">
       <c r="A22" s="3"/>
@@ -1724,25 +1727,25 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -1750,21 +1753,21 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
-      <c r="AG22" s="6"/>
+      <c r="AG22" s="5"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
-      <c r="AM22" s="7"/>
+      <c r="AM22" s="6"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="6"/>
+      <c r="AO22" s="5"/>
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
-      <c r="AU22" s="7"/>
+      <c r="AU22" s="6"/>
     </row>
     <row r="23" spans="1:47" ht="14.25">
       <c r="A23" s="3"/>
@@ -1773,47 +1776,47 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
-      <c r="AF23" s="7"/>
+      <c r="AF23" s="6"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
-      <c r="AU23" s="7"/>
+      <c r="AU23" s="6"/>
     </row>
     <row r="24" spans="1:47" ht="14.25">
       <c r="A24" s="3"/>
@@ -1822,47 +1825,47 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="7"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="7"/>
+      <c r="AF24" s="6"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
-      <c r="AU24" s="7"/>
+      <c r="AU24" s="6"/>
     </row>
     <row r="25" spans="1:47" ht="14.25">
       <c r="A25" s="3"/>
@@ -1871,25 +1874,25 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -1903,7 +1906,7 @@
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-      <c r="AM25" s="7"/>
+      <c r="AM25" s="6"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
@@ -1911,7 +1914,7 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
-      <c r="AU25" s="7"/>
+      <c r="AU25" s="6"/>
     </row>
     <row r="26" spans="1:47" ht="14.25">
       <c r="A26" s="3"/>
@@ -1920,25 +1923,25 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="7"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -1947,20 +1950,20 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
-      <c r="AH26" s="7"/>
+      <c r="AH26" s="6"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="7"/>
+      <c r="AM26" s="6"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="7"/>
+      <c r="AP26" s="6"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
-      <c r="AU26" s="7"/>
+      <c r="AU26" s="6"/>
     </row>
     <row r="27" spans="1:47" ht="14.25">
       <c r="A27" s="3"/>
@@ -1969,47 +1972,47 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="7"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="7"/>
+      <c r="AF27" s="6"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
-      <c r="AU27" s="7"/>
+      <c r="AU27" s="6"/>
     </row>
     <row r="28" spans="1:47" ht="14.25">
       <c r="A28" s="3"/>
@@ -2018,25 +2021,25 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -2050,7 +2053,7 @@
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
-      <c r="AM28" s="7"/>
+      <c r="AM28" s="6"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
@@ -2058,7 +2061,7 @@
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
-      <c r="AU28" s="7"/>
+      <c r="AU28" s="6"/>
     </row>
     <row r="29" spans="1:47" ht="14.25">
       <c r="A29" s="3"/>
@@ -2067,25 +2070,25 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="7"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -2099,15 +2102,15 @@
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
-      <c r="AM29" s="7"/>
+      <c r="AM29" s="6"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="6"/>
+      <c r="AO29" s="5"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
-      <c r="AU29" s="7"/>
+      <c r="AU29" s="6"/>
     </row>
     <row r="30" spans="1:47" ht="14.25">
       <c r="A30" s="3"/>
@@ -2116,25 +2119,25 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="7"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -2142,21 +2145,21 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
-      <c r="AG30" s="6"/>
+      <c r="AG30" s="5"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
-      <c r="AM30" s="7"/>
+      <c r="AM30" s="6"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="6"/>
+      <c r="AO30" s="5"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
       <c r="AT30" s="3"/>
-      <c r="AU30" s="7"/>
+      <c r="AU30" s="6"/>
     </row>
     <row r="31" spans="1:47" ht="14.25">
       <c r="A31" s="3"/>
@@ -2165,25 +2168,25 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="7"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
@@ -2197,7 +2200,7 @@
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
-      <c r="AM31" s="7"/>
+      <c r="AM31" s="6"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
@@ -2205,7 +2208,7 @@
       <c r="AR31" s="3"/>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3"/>
-      <c r="AU31" s="7"/>
+      <c r="AU31" s="6"/>
     </row>
     <row r="32" spans="1:47" ht="14.25">
       <c r="A32" s="3"/>
@@ -2214,25 +2217,25 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="7"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -2246,7 +2249,7 @@
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
-      <c r="AM32" s="7"/>
+      <c r="AM32" s="6"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
@@ -2254,7 +2257,7 @@
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
-      <c r="AU32" s="7"/>
+      <c r="AU32" s="6"/>
     </row>
     <row r="33" spans="1:47" ht="14.25">
       <c r="A33" s="3"/>
@@ -2263,47 +2266,47 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="7"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="7"/>
+      <c r="AF33" s="6"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
-      <c r="AU33" s="7"/>
+      <c r="AU33" s="6"/>
     </row>
     <row r="34" spans="1:47" ht="14.25">
       <c r="A34" s="3"/>
@@ -2312,25 +2315,25 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="7"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
@@ -2344,7 +2347,7 @@
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
-      <c r="AM34" s="7"/>
+      <c r="AM34" s="6"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3"/>
@@ -2352,7 +2355,7 @@
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
-      <c r="AU34" s="7"/>
+      <c r="AU34" s="6"/>
     </row>
     <row r="35" spans="1:47" ht="14.25">
       <c r="A35" s="3"/>
@@ -2361,25 +2364,25 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="7"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
@@ -2393,7 +2396,7 @@
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
-      <c r="AM35" s="7"/>
+      <c r="AM35" s="6"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="3"/>
@@ -2401,7 +2404,7 @@
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
       <c r="AT35" s="3"/>
-      <c r="AU35" s="7"/>
+      <c r="AU35" s="6"/>
     </row>
     <row r="36" spans="1:47" ht="14.25">
       <c r="A36" s="3"/>
@@ -2410,25 +2413,25 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="7"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -2437,20 +2440,20 @@
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
-      <c r="AH36" s="7"/>
+      <c r="AH36" s="6"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
-      <c r="AM36" s="7"/>
+      <c r="AM36" s="6"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
-      <c r="AP36" s="7"/>
+      <c r="AP36" s="6"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
       <c r="AS36" s="3"/>
       <c r="AT36" s="3"/>
-      <c r="AU36" s="7"/>
+      <c r="AU36" s="6"/>
     </row>
     <row r="37" spans="1:47" ht="14.25">
       <c r="A37" s="3"/>
@@ -2459,25 +2462,25 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="7"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -2491,7 +2494,7 @@
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
-      <c r="AM37" s="7"/>
+      <c r="AM37" s="6"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
@@ -2499,7 +2502,7 @@
       <c r="AR37" s="3"/>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3"/>
-      <c r="AU37" s="7"/>
+      <c r="AU37" s="6"/>
     </row>
     <row r="38" spans="1:47" ht="14.25">
       <c r="A38" s="3"/>
@@ -2508,47 +2511,47 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="7"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
-      <c r="AO38" s="7"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
       <c r="AS38" s="3"/>
       <c r="AT38" s="3"/>
-      <c r="AU38" s="7"/>
+      <c r="AU38" s="6"/>
     </row>
     <row r="39" spans="1:47" ht="14.25">
       <c r="A39" s="3"/>
@@ -2557,47 +2560,47 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="7"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="7"/>
+      <c r="AF39" s="6"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
-      <c r="AU39" s="7"/>
+      <c r="AU39" s="6"/>
     </row>
     <row r="40" spans="1:47" ht="14.25">
       <c r="A40" s="3"/>
@@ -2606,25 +2609,25 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="7"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -2638,7 +2641,7 @@
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
-      <c r="AM40" s="7"/>
+      <c r="AM40" s="6"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
@@ -2646,7 +2649,7 @@
       <c r="AR40" s="3"/>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
-      <c r="AU40" s="7"/>
+      <c r="AU40" s="6"/>
     </row>
     <row r="41" spans="1:47" ht="14.25">
       <c r="A41" s="3"/>
@@ -2655,25 +2658,25 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="7"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
@@ -2687,7 +2690,7 @@
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-      <c r="AM41" s="7"/>
+      <c r="AM41" s="6"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
@@ -2695,7 +2698,7 @@
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
       <c r="AT41" s="3"/>
-      <c r="AU41" s="7"/>
+      <c r="AU41" s="6"/>
     </row>
     <row r="42" spans="1:47" ht="14.25">
       <c r="A42" s="3"/>
@@ -2704,47 +2707,47 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="7"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
-      <c r="AF42" s="7"/>
+      <c r="AF42" s="6"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
-      <c r="AM42" s="7"/>
-      <c r="AN42" s="7"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
-      <c r="AU42" s="7"/>
+      <c r="AU42" s="6"/>
     </row>
     <row r="43" spans="1:47" ht="14.25">
       <c r="A43" s="3"/>
@@ -2753,25 +2756,25 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="7"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -2780,20 +2783,20 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
-      <c r="AH43" s="7"/>
+      <c r="AH43" s="6"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
-      <c r="AM43" s="7"/>
+      <c r="AM43" s="6"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
-      <c r="AP43" s="7"/>
+      <c r="AP43" s="6"/>
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
-      <c r="AU43" s="7"/>
+      <c r="AU43" s="6"/>
     </row>
     <row r="44" spans="1:47" ht="14.25">
       <c r="A44" s="3"/>
@@ -2802,25 +2805,25 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="7"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="7"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -2829,20 +2832,20 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
-      <c r="AH44" s="7"/>
+      <c r="AH44" s="6"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
-      <c r="AM44" s="7"/>
+      <c r="AM44" s="6"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
-      <c r="AP44" s="7"/>
+      <c r="AP44" s="6"/>
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
-      <c r="AU44" s="7"/>
+      <c r="AU44" s="6"/>
     </row>
     <row r="45" spans="1:47" ht="14.25">
       <c r="A45" s="3"/>
@@ -2851,25 +2854,25 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="7"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
@@ -2883,7 +2886,7 @@
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
-      <c r="AM45" s="7"/>
+      <c r="AM45" s="6"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
@@ -2891,7 +2894,7 @@
       <c r="AR45" s="3"/>
       <c r="AS45" s="3"/>
       <c r="AT45" s="3"/>
-      <c r="AU45" s="7"/>
+      <c r="AU45" s="6"/>
     </row>
     <row r="46" spans="1:47" ht="14.25">
       <c r="A46" s="3"/>
@@ -2900,25 +2903,25 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="7"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="7"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -2932,7 +2935,7 @@
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
-      <c r="AM46" s="7"/>
+      <c r="AM46" s="6"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
@@ -2940,7 +2943,7 @@
       <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
       <c r="AT46" s="3"/>
-      <c r="AU46" s="7"/>
+      <c r="AU46" s="6"/>
     </row>
     <row r="47" spans="1:47" ht="14.25">
       <c r="A47" s="3"/>
@@ -2949,25 +2952,25 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="7"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
@@ -2981,7 +2984,7 @@
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
-      <c r="AM47" s="7"/>
+      <c r="AM47" s="6"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
@@ -2989,7 +2992,7 @@
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
-      <c r="AU47" s="7"/>
+      <c r="AU47" s="6"/>
     </row>
     <row r="48" spans="1:47" ht="14.25">
       <c r="A48" s="3"/>
@@ -2998,25 +3001,25 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="6"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="7"/>
+      <c r="L48" s="6"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -3024,21 +3027,21 @@
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
-      <c r="AG48" s="7"/>
-      <c r="AH48" s="7"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
       <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
-      <c r="AM48" s="7"/>
+      <c r="AM48" s="6"/>
       <c r="AN48" s="3"/>
-      <c r="AO48" s="7"/>
-      <c r="AP48" s="7"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="6"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
-      <c r="AU48" s="7"/>
+      <c r="AU48" s="6"/>
     </row>
     <row r="49" spans="1:47" ht="14.25">
       <c r="A49" s="3"/>
@@ -3047,47 +3050,47 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="7"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="7"/>
+      <c r="AF49" s="6"/>
       <c r="AG49" s="3"/>
-      <c r="AH49" s="7"/>
+      <c r="AH49" s="6"/>
       <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
-      <c r="AM49" s="7"/>
-      <c r="AN49" s="7"/>
+      <c r="AM49" s="6"/>
+      <c r="AN49" s="6"/>
       <c r="AO49" s="3"/>
-      <c r="AP49" s="7"/>
+      <c r="AP49" s="6"/>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
-      <c r="AU49" s="7"/>
+      <c r="AU49" s="6"/>
     </row>
     <row r="50" spans="1:47" ht="14.25">
       <c r="A50" s="3"/>
@@ -3096,25 +3099,25 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="7"/>
+      <c r="L50" s="6"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
@@ -3123,20 +3126,20 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
-      <c r="AH50" s="7"/>
+      <c r="AH50" s="6"/>
       <c r="AI50" s="3"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
-      <c r="AM50" s="7"/>
+      <c r="AM50" s="6"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
-      <c r="AP50" s="7"/>
+      <c r="AP50" s="6"/>
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
       <c r="AS50" s="3"/>
       <c r="AT50" s="3"/>
-      <c r="AU50" s="7"/>
+      <c r="AU50" s="6"/>
     </row>
     <row r="51" spans="1:47" ht="14.25">
       <c r="A51" s="3"/>
@@ -3145,25 +3148,25 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="7"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
@@ -3171,21 +3174,21 @@
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
-      <c r="AG51" s="6"/>
+      <c r="AG51" s="5"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
-      <c r="AM51" s="7"/>
+      <c r="AM51" s="6"/>
       <c r="AN51" s="3"/>
-      <c r="AO51" s="6"/>
+      <c r="AO51" s="5"/>
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3"/>
       <c r="AR51" s="3"/>
       <c r="AS51" s="3"/>
       <c r="AT51" s="3"/>
-      <c r="AU51" s="7"/>
+      <c r="AU51" s="6"/>
     </row>
     <row r="52" spans="1:47" ht="14.25">
       <c r="A52" s="3"/>
@@ -3194,47 +3197,47 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="7"/>
+      <c r="L52" s="6"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="7"/>
+      <c r="AF52" s="6"/>
       <c r="AG52" s="3"/>
-      <c r="AH52" s="7"/>
+      <c r="AH52" s="6"/>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
-      <c r="AM52" s="7"/>
-      <c r="AN52" s="7"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="6"/>
       <c r="AO52" s="3"/>
-      <c r="AP52" s="7"/>
+      <c r="AP52" s="6"/>
       <c r="AQ52" s="3"/>
       <c r="AR52" s="3"/>
       <c r="AS52" s="3"/>
       <c r="AT52" s="3"/>
-      <c r="AU52" s="7"/>
+      <c r="AU52" s="6"/>
     </row>
     <row r="53" spans="1:47" ht="14.25">
       <c r="A53" s="3"/>
@@ -3243,25 +3246,25 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="6"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="7"/>
+      <c r="L53" s="6"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
@@ -3275,7 +3278,7 @@
       <c r="AJ53" s="3"/>
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
-      <c r="AM53" s="7"/>
+      <c r="AM53" s="6"/>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="3"/>
@@ -3283,7 +3286,7 @@
       <c r="AR53" s="3"/>
       <c r="AS53" s="3"/>
       <c r="AT53" s="3"/>
-      <c r="AU53" s="7"/>
+      <c r="AU53" s="6"/>
     </row>
     <row r="54" spans="1:47" ht="14.25">
       <c r="A54" s="3"/>
@@ -3292,39 +3295,39 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="6"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="7"/>
+      <c r="L54" s="6"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
-      <c r="AF54" s="7"/>
+      <c r="AF54" s="6"/>
       <c r="AG54" s="3"/>
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
       <c r="AJ54" s="3"/>
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
-      <c r="AM54" s="7"/>
+      <c r="AM54" s="6"/>
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
@@ -3332,7 +3335,7 @@
       <c r="AR54" s="3"/>
       <c r="AS54" s="3"/>
       <c r="AT54" s="3"/>
-      <c r="AU54" s="7"/>
+      <c r="AU54" s="6"/>
     </row>
     <row r="55" spans="1:47" ht="14.25">
       <c r="A55" s="3"/>
@@ -3341,25 +3344,25 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="6"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="7"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
@@ -3368,20 +3371,20 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
-      <c r="AH55" s="7"/>
+      <c r="AH55" s="6"/>
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
-      <c r="AM55" s="7"/>
+      <c r="AM55" s="6"/>
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
-      <c r="AP55" s="7"/>
+      <c r="AP55" s="6"/>
       <c r="AQ55" s="3"/>
       <c r="AR55" s="3"/>
       <c r="AS55" s="3"/>
       <c r="AT55" s="3"/>
-      <c r="AU55" s="7"/>
+      <c r="AU55" s="6"/>
     </row>
     <row r="56" spans="1:47" ht="14.25">
       <c r="A56" s="3"/>
@@ -3390,47 +3393,47 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="6"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="7"/>
+      <c r="L56" s="6"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-      <c r="AF56" s="7"/>
+      <c r="AF56" s="6"/>
       <c r="AG56" s="3"/>
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
-      <c r="AM56" s="7"/>
-      <c r="AN56" s="7"/>
+      <c r="AM56" s="6"/>
+      <c r="AN56" s="6"/>
       <c r="AO56" s="3"/>
       <c r="AP56" s="3"/>
       <c r="AQ56" s="3"/>
       <c r="AR56" s="3"/>
       <c r="AS56" s="3"/>
       <c r="AT56" s="3"/>
-      <c r="AU56" s="7"/>
+      <c r="AU56" s="6"/>
     </row>
     <row r="57" spans="1:47" ht="14.25">
       <c r="A57" s="3"/>
@@ -3439,25 +3442,25 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="6"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="7"/>
+      <c r="L57" s="6"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
@@ -3471,7 +3474,7 @@
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
-      <c r="AM57" s="7"/>
+      <c r="AM57" s="6"/>
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
       <c r="AP57" s="3"/>
@@ -3479,7 +3482,7 @@
       <c r="AR57" s="3"/>
       <c r="AS57" s="3"/>
       <c r="AT57" s="3"/>
-      <c r="AU57" s="7"/>
+      <c r="AU57" s="6"/>
     </row>
     <row r="58" spans="1:47" ht="14.25">
       <c r="A58" s="3"/>
@@ -3488,47 +3491,47 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="6"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="7"/>
+      <c r="L58" s="6"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
-      <c r="AF58" s="7"/>
+      <c r="AF58" s="6"/>
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
-      <c r="AM58" s="7"/>
-      <c r="AN58" s="7"/>
+      <c r="AM58" s="6"/>
+      <c r="AN58" s="6"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="3"/>
       <c r="AQ58" s="3"/>
       <c r="AR58" s="3"/>
       <c r="AS58" s="3"/>
       <c r="AT58" s="3"/>
-      <c r="AU58" s="7"/>
+      <c r="AU58" s="6"/>
     </row>
     <row r="59" spans="1:47" ht="14.25">
       <c r="A59" s="3"/>
@@ -3537,47 +3540,47 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="7"/>
+      <c r="G59" s="6"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="7"/>
+      <c r="L59" s="6"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
-      <c r="AF59" s="7"/>
+      <c r="AF59" s="6"/>
       <c r="AG59" s="3"/>
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
-      <c r="AM59" s="7"/>
-      <c r="AN59" s="7"/>
+      <c r="AM59" s="6"/>
+      <c r="AN59" s="6"/>
       <c r="AO59" s="3"/>
       <c r="AP59" s="3"/>
       <c r="AQ59" s="3"/>
       <c r="AR59" s="3"/>
       <c r="AS59" s="3"/>
       <c r="AT59" s="3"/>
-      <c r="AU59" s="7"/>
+      <c r="AU59" s="6"/>
     </row>
     <row r="60" spans="1:47" ht="14.25">
       <c r="A60" s="3"/>
@@ -3586,47 +3589,47 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="6"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="7"/>
+      <c r="L60" s="6"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
-      <c r="AF60" s="7"/>
+      <c r="AF60" s="6"/>
       <c r="AG60" s="3"/>
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
       <c r="AJ60" s="3"/>
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
-      <c r="AM60" s="7"/>
-      <c r="AN60" s="7"/>
+      <c r="AM60" s="6"/>
+      <c r="AN60" s="6"/>
       <c r="AO60" s="3"/>
       <c r="AP60" s="3"/>
       <c r="AQ60" s="3"/>
       <c r="AR60" s="3"/>
       <c r="AS60" s="3"/>
       <c r="AT60" s="3"/>
-      <c r="AU60" s="7"/>
+      <c r="AU60" s="6"/>
     </row>
     <row r="61" spans="1:47" ht="14.25">
       <c r="A61" s="3"/>
@@ -3635,39 +3638,39 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="6"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="7"/>
+      <c r="L61" s="6"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
-      <c r="AF61" s="7"/>
+      <c r="AF61" s="6"/>
       <c r="AG61" s="3"/>
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
       <c r="AJ61" s="3"/>
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
-      <c r="AM61" s="7"/>
+      <c r="AM61" s="6"/>
       <c r="AN61" s="3"/>
       <c r="AO61" s="3"/>
       <c r="AP61" s="3"/>
@@ -3675,7 +3678,7 @@
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
       <c r="AT61" s="3"/>
-      <c r="AU61" s="7"/>
+      <c r="AU61" s="6"/>
     </row>
     <row r="62" spans="1:47" ht="14.25">
       <c r="A62" s="3"/>
@@ -3684,30 +3687,30 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="6"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="7"/>
+      <c r="L62" s="6"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="7"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
-      <c r="AD62" s="6"/>
+      <c r="AD62" s="5"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
@@ -3716,7 +3719,7 @@
       <c r="AJ62" s="3"/>
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
-      <c r="AM62" s="7"/>
+      <c r="AM62" s="6"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
       <c r="AP62" s="3"/>
@@ -3724,7 +3727,7 @@
       <c r="AR62" s="3"/>
       <c r="AS62" s="3"/>
       <c r="AT62" s="3"/>
-      <c r="AU62" s="7"/>
+      <c r="AU62" s="6"/>
     </row>
     <row r="63" spans="1:47" ht="14.25">
       <c r="A63" s="3"/>
@@ -3733,25 +3736,25 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="6"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="7"/>
+      <c r="L63" s="6"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
@@ -3765,7 +3768,7 @@
       <c r="AJ63" s="3"/>
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
-      <c r="AM63" s="7"/>
+      <c r="AM63" s="6"/>
       <c r="AN63" s="3"/>
       <c r="AO63" s="3"/>
       <c r="AP63" s="3"/>
@@ -3773,7 +3776,7 @@
       <c r="AR63" s="3"/>
       <c r="AS63" s="3"/>
       <c r="AT63" s="3"/>
-      <c r="AU63" s="7"/>
+      <c r="AU63" s="6"/>
     </row>
     <row r="64" spans="1:47" ht="14.25">
       <c r="A64" s="3"/>
@@ -3782,25 +3785,25 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="6"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="7"/>
+      <c r="L64" s="6"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
@@ -3808,13 +3811,13 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
-      <c r="AG64" s="6"/>
+      <c r="AG64" s="5"/>
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
       <c r="AJ64" s="3"/>
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
-      <c r="AM64" s="7"/>
+      <c r="AM64" s="6"/>
       <c r="AN64" s="3"/>
       <c r="AO64" s="3"/>
       <c r="AP64" s="3"/>
@@ -3822,7 +3825,7 @@
       <c r="AR64" s="3"/>
       <c r="AS64" s="3"/>
       <c r="AT64" s="3"/>
-      <c r="AU64" s="7"/>
+      <c r="AU64" s="6"/>
     </row>
     <row r="65" spans="1:47" ht="14.25">
       <c r="A65" s="3"/>
@@ -3831,25 +3834,25 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="6"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="7"/>
+      <c r="L65" s="6"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
@@ -3858,20 +3861,20 @@
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
-      <c r="AH65" s="7"/>
+      <c r="AH65" s="6"/>
       <c r="AI65" s="3"/>
       <c r="AJ65" s="3"/>
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
-      <c r="AM65" s="7"/>
+      <c r="AM65" s="6"/>
       <c r="AN65" s="3"/>
       <c r="AO65" s="3"/>
-      <c r="AP65" s="7"/>
+      <c r="AP65" s="6"/>
       <c r="AQ65" s="3"/>
       <c r="AR65" s="3"/>
       <c r="AS65" s="3"/>
       <c r="AT65" s="3"/>
-      <c r="AU65" s="7"/>
+      <c r="AU65" s="6"/>
     </row>
     <row r="66" spans="1:47" ht="14.25">
       <c r="A66" s="3"/>
@@ -3880,25 +3883,25 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="7"/>
+      <c r="G66" s="6"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="7"/>
+      <c r="L66" s="6"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
@@ -3912,7 +3915,7 @@
       <c r="AJ66" s="3"/>
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
-      <c r="AM66" s="7"/>
+      <c r="AM66" s="6"/>
       <c r="AN66" s="3"/>
       <c r="AO66" s="3"/>
       <c r="AP66" s="3"/>
@@ -3920,7 +3923,7 @@
       <c r="AR66" s="3"/>
       <c r="AS66" s="3"/>
       <c r="AT66" s="3"/>
-      <c r="AU66" s="7"/>
+      <c r="AU66" s="6"/>
     </row>
     <row r="67" spans="1:47" ht="14.25">
       <c r="A67" s="3"/>
@@ -3929,47 +3932,47 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="7"/>
+      <c r="G67" s="6"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="7"/>
+      <c r="L67" s="6"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
       <c r="Z67" s="3"/>
-      <c r="AA67" s="6"/>
-      <c r="AB67" s="6"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-      <c r="AF67" s="7"/>
+      <c r="AF67" s="6"/>
       <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
-      <c r="AM67" s="7"/>
-      <c r="AN67" s="7"/>
+      <c r="AM67" s="6"/>
+      <c r="AN67" s="6"/>
       <c r="AO67" s="3"/>
       <c r="AP67" s="3"/>
       <c r="AQ67" s="3"/>
       <c r="AR67" s="3"/>
       <c r="AS67" s="3"/>
       <c r="AT67" s="3"/>
-      <c r="AU67" s="7"/>
+      <c r="AU67" s="6"/>
     </row>
     <row r="68" spans="1:47" ht="14.25">
       <c r="A68" s="3"/>
@@ -3978,25 +3981,25 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="6"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="7"/>
+      <c r="L68" s="6"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
@@ -4010,7 +4013,7 @@
       <c r="AJ68" s="3"/>
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
-      <c r="AM68" s="7"/>
+      <c r="AM68" s="6"/>
       <c r="AN68" s="3"/>
       <c r="AO68" s="3"/>
       <c r="AP68" s="3"/>
@@ -4018,7 +4021,7 @@
       <c r="AR68" s="3"/>
       <c r="AS68" s="3"/>
       <c r="AT68" s="3"/>
-      <c r="AU68" s="7"/>
+      <c r="AU68" s="6"/>
     </row>
     <row r="69" spans="1:47" ht="14.25">
       <c r="A69" s="3"/>
@@ -4027,25 +4030,25 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="7"/>
+      <c r="G69" s="6"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="7"/>
+      <c r="L69" s="6"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
@@ -4059,7 +4062,7 @@
       <c r="AJ69" s="3"/>
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
-      <c r="AM69" s="7"/>
+      <c r="AM69" s="6"/>
       <c r="AN69" s="3"/>
       <c r="AO69" s="3"/>
       <c r="AP69" s="3"/>
@@ -4067,7 +4070,7 @@
       <c r="AR69" s="3"/>
       <c r="AS69" s="3"/>
       <c r="AT69" s="3"/>
-      <c r="AU69" s="7"/>
+      <c r="AU69" s="6"/>
     </row>
     <row r="70" spans="1:47" ht="14.25">
       <c r="A70" s="3"/>
@@ -4076,25 +4079,25 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="6"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="7"/>
+      <c r="L70" s="6"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="7"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
@@ -4108,7 +4111,7 @@
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
-      <c r="AM70" s="7"/>
+      <c r="AM70" s="6"/>
       <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
       <c r="AP70" s="3"/>
@@ -4116,7 +4119,7 @@
       <c r="AR70" s="3"/>
       <c r="AS70" s="3"/>
       <c r="AT70" s="3"/>
-      <c r="AU70" s="7"/>
+      <c r="AU70" s="6"/>
     </row>
     <row r="71" spans="1:47" ht="14.25">
       <c r="A71" s="3"/>
@@ -4125,25 +4128,25 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="7"/>
+      <c r="G71" s="6"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="7"/>
+      <c r="L71" s="6"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
-      <c r="W71" s="7"/>
-      <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
@@ -4157,7 +4160,7 @@
       <c r="AJ71" s="3"/>
       <c r="AK71" s="3"/>
       <c r="AL71" s="3"/>
-      <c r="AM71" s="7"/>
+      <c r="AM71" s="6"/>
       <c r="AN71" s="3"/>
       <c r="AO71" s="3"/>
       <c r="AP71" s="3"/>
@@ -4165,7 +4168,7 @@
       <c r="AR71" s="3"/>
       <c r="AS71" s="3"/>
       <c r="AT71" s="3"/>
-      <c r="AU71" s="7"/>
+      <c r="AU71" s="6"/>
     </row>
     <row r="72" spans="1:47" ht="14.25">
       <c r="A72" s="3"/>
@@ -4174,25 +4177,25 @@
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="7"/>
+      <c r="G72" s="6"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="5"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
@@ -4206,7 +4209,7 @@
       <c r="AJ72" s="3"/>
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
-      <c r="AM72" s="7"/>
+      <c r="AM72" s="6"/>
       <c r="AN72" s="3"/>
       <c r="AO72" s="3"/>
       <c r="AP72" s="3"/>
@@ -4214,7 +4217,7 @@
       <c r="AR72" s="3"/>
       <c r="AS72" s="3"/>
       <c r="AT72" s="3"/>
-      <c r="AU72" s="7"/>
+      <c r="AU72" s="6"/>
     </row>
     <row r="73" spans="1:47" ht="14.25">
       <c r="A73" s="3"/>
@@ -4223,25 +4226,25 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="6"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="7"/>
+      <c r="L73" s="6"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
@@ -4255,7 +4258,7 @@
       <c r="AJ73" s="3"/>
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
-      <c r="AM73" s="7"/>
+      <c r="AM73" s="6"/>
       <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
       <c r="AP73" s="3"/>
@@ -4263,7 +4266,7 @@
       <c r="AR73" s="3"/>
       <c r="AS73" s="3"/>
       <c r="AT73" s="3"/>
-      <c r="AU73" s="7"/>
+      <c r="AU73" s="6"/>
     </row>
     <row r="74" spans="1:47" ht="14.25">
       <c r="A74" s="3"/>
@@ -4272,25 +4275,25 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="7"/>
+      <c r="G74" s="6"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="7"/>
+      <c r="L74" s="6"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
@@ -4304,7 +4307,7 @@
       <c r="AJ74" s="3"/>
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
-      <c r="AM74" s="7"/>
+      <c r="AM74" s="6"/>
       <c r="AN74" s="3"/>
       <c r="AO74" s="3"/>
       <c r="AP74" s="3"/>
@@ -4312,7 +4315,7 @@
       <c r="AR74" s="3"/>
       <c r="AS74" s="3"/>
       <c r="AT74" s="3"/>
-      <c r="AU74" s="7"/>
+      <c r="AU74" s="6"/>
     </row>
     <row r="75" spans="1:47" ht="14.25">
       <c r="A75" s="3"/>
@@ -4321,25 +4324,25 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="7"/>
+      <c r="L75" s="6"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
@@ -4353,15 +4356,15 @@
       <c r="AJ75" s="3"/>
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
-      <c r="AM75" s="7"/>
+      <c r="AM75" s="6"/>
       <c r="AN75" s="3"/>
       <c r="AO75" s="3"/>
-      <c r="AP75" s="7"/>
+      <c r="AP75" s="6"/>
       <c r="AQ75" s="3"/>
       <c r="AR75" s="3"/>
       <c r="AS75" s="3"/>
       <c r="AT75" s="3"/>
-      <c r="AU75" s="7"/>
+      <c r="AU75" s="6"/>
     </row>
     <row r="76" spans="1:47" ht="14.25">
       <c r="A76" s="3"/>
@@ -4370,25 +4373,25 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="7"/>
+      <c r="G76" s="6"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="7"/>
+      <c r="L76" s="6"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
-      <c r="W76" s="7"/>
-      <c r="X76" s="7"/>
-      <c r="Y76" s="7"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
@@ -4402,7 +4405,7 @@
       <c r="AJ76" s="3"/>
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
-      <c r="AM76" s="7"/>
+      <c r="AM76" s="6"/>
       <c r="AN76" s="3"/>
       <c r="AO76" s="3"/>
       <c r="AP76" s="3"/>
@@ -4410,7 +4413,7 @@
       <c r="AR76" s="3"/>
       <c r="AS76" s="3"/>
       <c r="AT76" s="3"/>
-      <c r="AU76" s="7"/>
+      <c r="AU76" s="6"/>
     </row>
     <row r="77" spans="1:47" ht="14.25">
       <c r="A77" s="3"/>
@@ -4419,47 +4422,47 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="7"/>
+      <c r="G77" s="6"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="7"/>
+      <c r="L77" s="6"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
-      <c r="W77" s="7"/>
-      <c r="X77" s="7"/>
-      <c r="Y77" s="7"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
-      <c r="AF77" s="7"/>
+      <c r="AF77" s="6"/>
       <c r="AG77" s="3"/>
       <c r="AH77" s="3"/>
       <c r="AI77" s="3"/>
       <c r="AJ77" s="3"/>
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
-      <c r="AM77" s="7"/>
-      <c r="AN77" s="7"/>
+      <c r="AM77" s="6"/>
+      <c r="AN77" s="6"/>
       <c r="AO77" s="3"/>
       <c r="AP77" s="3"/>
       <c r="AQ77" s="3"/>
       <c r="AR77" s="3"/>
       <c r="AS77" s="3"/>
       <c r="AT77" s="3"/>
-      <c r="AU77" s="7"/>
+      <c r="AU77" s="6"/>
     </row>
     <row r="78" spans="1:47" ht="14.25">
       <c r="A78" s="3"/>
@@ -4468,25 +4471,25 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="7"/>
+      <c r="G78" s="6"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="7"/>
+      <c r="L78" s="6"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-      <c r="W78" s="7"/>
-      <c r="X78" s="7"/>
-      <c r="Y78" s="7"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
@@ -4500,7 +4503,7 @@
       <c r="AJ78" s="3"/>
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
-      <c r="AM78" s="7"/>
+      <c r="AM78" s="6"/>
       <c r="AN78" s="3"/>
       <c r="AO78" s="3"/>
       <c r="AP78" s="3"/>
@@ -4508,7 +4511,7 @@
       <c r="AR78" s="3"/>
       <c r="AS78" s="3"/>
       <c r="AT78" s="3"/>
-      <c r="AU78" s="7"/>
+      <c r="AU78" s="6"/>
     </row>
     <row r="79" spans="1:47" ht="14.25">
       <c r="A79" s="3"/>
@@ -4517,47 +4520,47 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="7"/>
+      <c r="G79" s="6"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="7"/>
+      <c r="L79" s="6"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
-      <c r="AF79" s="7"/>
+      <c r="AF79" s="6"/>
       <c r="AG79" s="3"/>
       <c r="AH79" s="3"/>
       <c r="AI79" s="3"/>
       <c r="AJ79" s="3"/>
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
-      <c r="AM79" s="7"/>
-      <c r="AN79" s="7"/>
+      <c r="AM79" s="6"/>
+      <c r="AN79" s="6"/>
       <c r="AO79" s="3"/>
       <c r="AP79" s="3"/>
       <c r="AQ79" s="3"/>
       <c r="AR79" s="3"/>
       <c r="AS79" s="3"/>
       <c r="AT79" s="3"/>
-      <c r="AU79" s="7"/>
+      <c r="AU79" s="6"/>
     </row>
     <row r="80" spans="1:47" ht="14.25">
       <c r="A80" s="3"/>
@@ -4566,47 +4569,47 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="7"/>
+      <c r="G80" s="6"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="7"/>
+      <c r="L80" s="6"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
-      <c r="AF80" s="7"/>
+      <c r="AF80" s="6"/>
       <c r="AG80" s="3"/>
-      <c r="AH80" s="7"/>
+      <c r="AH80" s="6"/>
       <c r="AI80" s="3"/>
       <c r="AJ80" s="3"/>
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
-      <c r="AM80" s="7"/>
-      <c r="AN80" s="7"/>
+      <c r="AM80" s="6"/>
+      <c r="AN80" s="6"/>
       <c r="AO80" s="3"/>
-      <c r="AP80" s="7"/>
+      <c r="AP80" s="6"/>
       <c r="AQ80" s="3"/>
       <c r="AR80" s="3"/>
       <c r="AS80" s="3"/>
       <c r="AT80" s="3"/>
-      <c r="AU80" s="7"/>
+      <c r="AU80" s="6"/>
     </row>
     <row r="81" spans="1:47" ht="14.25">
       <c r="A81" s="3"/>
@@ -4615,25 +4618,25 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="7"/>
+      <c r="G81" s="6"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="7"/>
+      <c r="L81" s="6"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
@@ -4647,7 +4650,7 @@
       <c r="AJ81" s="3"/>
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
-      <c r="AM81" s="7"/>
+      <c r="AM81" s="6"/>
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
       <c r="AP81" s="3"/>
@@ -4655,7 +4658,7 @@
       <c r="AR81" s="3"/>
       <c r="AS81" s="3"/>
       <c r="AT81" s="3"/>
-      <c r="AU81" s="7"/>
+      <c r="AU81" s="6"/>
     </row>
     <row r="82" spans="1:47" ht="14.25">
       <c r="A82" s="3"/>
@@ -4664,25 +4667,25 @@
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="7"/>
+      <c r="G82" s="6"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="7"/>
+      <c r="L82" s="6"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
@@ -4690,13 +4693,13 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-      <c r="AG82" s="6"/>
+      <c r="AG82" s="5"/>
       <c r="AH82" s="3"/>
       <c r="AI82" s="3"/>
       <c r="AJ82" s="3"/>
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
-      <c r="AM82" s="7"/>
+      <c r="AM82" s="6"/>
       <c r="AN82" s="3"/>
       <c r="AO82" s="3"/>
       <c r="AP82" s="3"/>
@@ -4704,7 +4707,7 @@
       <c r="AR82" s="3"/>
       <c r="AS82" s="3"/>
       <c r="AT82" s="3"/>
-      <c r="AU82" s="7"/>
+      <c r="AU82" s="6"/>
     </row>
     <row r="83" spans="1:47" ht="14.25">
       <c r="A83" s="3"/>
@@ -4713,25 +4716,25 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="7"/>
+      <c r="G83" s="6"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="7"/>
+      <c r="L83" s="6"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
@@ -4740,20 +4743,20 @@
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
-      <c r="AH83" s="7"/>
+      <c r="AH83" s="6"/>
       <c r="AI83" s="3"/>
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
-      <c r="AM83" s="7"/>
+      <c r="AM83" s="6"/>
       <c r="AN83" s="3"/>
       <c r="AO83" s="3"/>
-      <c r="AP83" s="7"/>
+      <c r="AP83" s="6"/>
       <c r="AQ83" s="3"/>
       <c r="AR83" s="3"/>
       <c r="AS83" s="3"/>
       <c r="AT83" s="3"/>
-      <c r="AU83" s="7"/>
+      <c r="AU83" s="6"/>
     </row>
     <row r="84" spans="1:47" ht="14.25">
       <c r="A84" s="3"/>
@@ -4762,47 +4765,47 @@
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="7"/>
+      <c r="G84" s="6"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="7"/>
+      <c r="L84" s="6"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="7"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
-      <c r="AF84" s="7"/>
+      <c r="AF84" s="6"/>
       <c r="AG84" s="3"/>
       <c r="AH84" s="3"/>
       <c r="AI84" s="3"/>
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
-      <c r="AM84" s="7"/>
-      <c r="AN84" s="7"/>
+      <c r="AM84" s="6"/>
+      <c r="AN84" s="6"/>
       <c r="AO84" s="3"/>
       <c r="AP84" s="3"/>
       <c r="AQ84" s="3"/>
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
       <c r="AT84" s="3"/>
-      <c r="AU84" s="7"/>
+      <c r="AU84" s="6"/>
     </row>
     <row r="85" spans="1:47" ht="14.25">
       <c r="A85" s="3"/>
@@ -4811,25 +4814,25 @@
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="7"/>
+      <c r="G85" s="6"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="7"/>
+      <c r="L85" s="6"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
-      <c r="Y85" s="7"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
@@ -4843,7 +4846,7 @@
       <c r="AJ85" s="3"/>
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
-      <c r="AM85" s="7"/>
+      <c r="AM85" s="6"/>
       <c r="AN85" s="3"/>
       <c r="AO85" s="3"/>
       <c r="AP85" s="3"/>
@@ -4851,7 +4854,7 @@
       <c r="AR85" s="3"/>
       <c r="AS85" s="3"/>
       <c r="AT85" s="3"/>
-      <c r="AU85" s="7"/>
+      <c r="AU85" s="6"/>
     </row>
     <row r="86" spans="1:47" ht="14.25">
       <c r="A86" s="3"/>
@@ -4860,47 +4863,47 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="7"/>
+      <c r="G86" s="6"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="7"/>
+      <c r="L86" s="6"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
       <c r="Z86" s="3"/>
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
-      <c r="AF86" s="7"/>
+      <c r="AF86" s="6"/>
       <c r="AG86" s="3"/>
       <c r="AH86" s="3"/>
       <c r="AI86" s="3"/>
       <c r="AJ86" s="3"/>
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
-      <c r="AM86" s="7"/>
-      <c r="AN86" s="7"/>
+      <c r="AM86" s="6"/>
+      <c r="AN86" s="6"/>
       <c r="AO86" s="3"/>
       <c r="AP86" s="3"/>
       <c r="AQ86" s="3"/>
       <c r="AR86" s="3"/>
       <c r="AS86" s="3"/>
       <c r="AT86" s="3"/>
-      <c r="AU86" s="7"/>
+      <c r="AU86" s="6"/>
     </row>
     <row r="87" spans="1:47" ht="14.25">
       <c r="A87" s="3"/>
@@ -4909,25 +4912,25 @@
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="7"/>
+      <c r="G87" s="6"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="7"/>
+      <c r="L87" s="6"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
@@ -4941,7 +4944,7 @@
       <c r="AJ87" s="3"/>
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
-      <c r="AM87" s="7"/>
+      <c r="AM87" s="6"/>
       <c r="AN87" s="3"/>
       <c r="AO87" s="3"/>
       <c r="AP87" s="3"/>
@@ -4949,7 +4952,7 @@
       <c r="AR87" s="3"/>
       <c r="AS87" s="3"/>
       <c r="AT87" s="3"/>
-      <c r="AU87" s="7"/>
+      <c r="AU87" s="6"/>
     </row>
     <row r="88" spans="1:47" ht="14.25">
       <c r="A88" s="3"/>
@@ -4958,25 +4961,25 @@
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="7"/>
+      <c r="G88" s="6"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="7"/>
+      <c r="L88" s="6"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
       <c r="Z88" s="3"/>
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
@@ -4990,7 +4993,7 @@
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
-      <c r="AM88" s="7"/>
+      <c r="AM88" s="6"/>
       <c r="AN88" s="3"/>
       <c r="AO88" s="3"/>
       <c r="AP88" s="3"/>
@@ -4998,7 +5001,7 @@
       <c r="AR88" s="3"/>
       <c r="AS88" s="3"/>
       <c r="AT88" s="3"/>
-      <c r="AU88" s="7"/>
+      <c r="AU88" s="6"/>
     </row>
     <row r="89" spans="1:47" ht="14.25">
       <c r="A89" s="3"/>
@@ -5007,47 +5010,47 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="7"/>
+      <c r="G89" s="6"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="7"/>
+      <c r="L89" s="6"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
-      <c r="AF89" s="6"/>
+      <c r="AF89" s="5"/>
       <c r="AG89" s="3"/>
-      <c r="AH89" s="7"/>
+      <c r="AH89" s="6"/>
       <c r="AI89" s="3"/>
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
       <c r="AL89" s="3"/>
-      <c r="AM89" s="7"/>
-      <c r="AN89" s="6"/>
+      <c r="AM89" s="6"/>
+      <c r="AN89" s="5"/>
       <c r="AO89" s="3"/>
       <c r="AP89" s="3"/>
       <c r="AQ89" s="3"/>
       <c r="AR89" s="3"/>
       <c r="AS89" s="3"/>
       <c r="AT89" s="3"/>
-      <c r="AU89" s="7"/>
+      <c r="AU89" s="6"/>
     </row>
     <row r="90" spans="1:47" ht="14.25">
       <c r="A90" s="3"/>
@@ -5056,25 +5059,25 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="7"/>
+      <c r="G90" s="6"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="7"/>
+      <c r="L90" s="6"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
-      <c r="Y90" s="7"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
@@ -5083,20 +5086,20 @@
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
       <c r="AG90" s="3"/>
-      <c r="AH90" s="7"/>
+      <c r="AH90" s="6"/>
       <c r="AI90" s="3"/>
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
-      <c r="AM90" s="7"/>
+      <c r="AM90" s="6"/>
       <c r="AN90" s="3"/>
       <c r="AO90" s="3"/>
-      <c r="AP90" s="7"/>
+      <c r="AP90" s="6"/>
       <c r="AQ90" s="3"/>
       <c r="AR90" s="3"/>
       <c r="AS90" s="3"/>
       <c r="AT90" s="3"/>
-      <c r="AU90" s="7"/>
+      <c r="AU90" s="6"/>
     </row>
     <row r="91" spans="1:47" ht="14.25">
       <c r="A91" s="3"/>
@@ -5105,25 +5108,25 @@
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="7"/>
+      <c r="G91" s="6"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="7"/>
+      <c r="L91" s="6"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-      <c r="Y91" s="7"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
@@ -5132,20 +5135,20 @@
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
       <c r="AG91" s="3"/>
-      <c r="AH91" s="7"/>
+      <c r="AH91" s="6"/>
       <c r="AI91" s="3"/>
       <c r="AJ91" s="3"/>
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
-      <c r="AM91" s="7"/>
+      <c r="AM91" s="6"/>
       <c r="AN91" s="3"/>
       <c r="AO91" s="3"/>
-      <c r="AP91" s="7"/>
+      <c r="AP91" s="6"/>
       <c r="AQ91" s="3"/>
       <c r="AR91" s="3"/>
       <c r="AS91" s="3"/>
       <c r="AT91" s="3"/>
-      <c r="AU91" s="7"/>
+      <c r="AU91" s="6"/>
     </row>
     <row r="92" spans="1:47" ht="14.25">
       <c r="A92" s="3"/>
@@ -5154,47 +5157,47 @@
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="7"/>
+      <c r="G92" s="6"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="7"/>
+      <c r="L92" s="6"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
       <c r="Z92" s="3"/>
-      <c r="AA92" s="6"/>
+      <c r="AA92" s="5"/>
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
       <c r="AG92" s="3"/>
-      <c r="AH92" s="7"/>
+      <c r="AH92" s="6"/>
       <c r="AI92" s="3"/>
       <c r="AJ92" s="3"/>
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
-      <c r="AM92" s="7"/>
+      <c r="AM92" s="6"/>
       <c r="AN92" s="3"/>
       <c r="AO92" s="3"/>
-      <c r="AP92" s="7"/>
+      <c r="AP92" s="6"/>
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
       <c r="AT92" s="3"/>
-      <c r="AU92" s="7"/>
+      <c r="AU92" s="6"/>
     </row>
     <row r="93" spans="1:47" ht="14.25">
       <c r="A93" s="3"/>
@@ -5203,39 +5206,39 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="7"/>
+      <c r="G93" s="6"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="7"/>
+      <c r="L93" s="6"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
-      <c r="AF93" s="7"/>
+      <c r="AF93" s="6"/>
       <c r="AG93" s="3"/>
       <c r="AH93" s="3"/>
       <c r="AI93" s="3"/>
       <c r="AJ93" s="3"/>
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
-      <c r="AM93" s="7"/>
+      <c r="AM93" s="6"/>
       <c r="AN93" s="3"/>
       <c r="AO93" s="3"/>
       <c r="AP93" s="3"/>
@@ -5243,7 +5246,7 @@
       <c r="AR93" s="3"/>
       <c r="AS93" s="3"/>
       <c r="AT93" s="3"/>
-      <c r="AU93" s="7"/>
+      <c r="AU93" s="6"/>
     </row>
     <row r="94" spans="1:47" ht="14.25">
       <c r="A94" s="3"/>
@@ -5252,47 +5255,47 @@
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="7"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="7"/>
+      <c r="L94" s="6"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
-      <c r="AF94" s="7"/>
+      <c r="AF94" s="6"/>
       <c r="AG94" s="3"/>
-      <c r="AH94" s="7"/>
+      <c r="AH94" s="6"/>
       <c r="AI94" s="3"/>
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
-      <c r="AM94" s="7"/>
-      <c r="AN94" s="7"/>
+      <c r="AM94" s="6"/>
+      <c r="AN94" s="6"/>
       <c r="AO94" s="3"/>
-      <c r="AP94" s="7"/>
+      <c r="AP94" s="6"/>
       <c r="AQ94" s="3"/>
       <c r="AR94" s="3"/>
       <c r="AS94" s="3"/>
       <c r="AT94" s="3"/>
-      <c r="AU94" s="7"/>
+      <c r="AU94" s="6"/>
     </row>
     <row r="95" spans="1:47" ht="14.25">
       <c r="A95" s="3"/>
@@ -5301,25 +5304,25 @@
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="7"/>
+      <c r="G95" s="6"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="5"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
@@ -5328,20 +5331,20 @@
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
       <c r="AG95" s="3"/>
-      <c r="AH95" s="7"/>
+      <c r="AH95" s="6"/>
       <c r="AI95" s="3"/>
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
-      <c r="AM95" s="7"/>
+      <c r="AM95" s="6"/>
       <c r="AN95" s="3"/>
       <c r="AO95" s="3"/>
-      <c r="AP95" s="7"/>
+      <c r="AP95" s="6"/>
       <c r="AQ95" s="3"/>
       <c r="AR95" s="3"/>
       <c r="AS95" s="3"/>
       <c r="AT95" s="3"/>
-      <c r="AU95" s="7"/>
+      <c r="AU95" s="6"/>
     </row>
     <row r="96" spans="1:47" ht="14.25">
       <c r="A96" s="3"/>
@@ -5350,25 +5353,25 @@
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="7"/>
+      <c r="G96" s="6"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="7"/>
+      <c r="L96" s="6"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
@@ -5377,20 +5380,20 @@
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
       <c r="AG96" s="3"/>
-      <c r="AH96" s="7"/>
+      <c r="AH96" s="6"/>
       <c r="AI96" s="3"/>
       <c r="AJ96" s="3"/>
       <c r="AK96" s="3"/>
       <c r="AL96" s="3"/>
-      <c r="AM96" s="7"/>
+      <c r="AM96" s="6"/>
       <c r="AN96" s="3"/>
       <c r="AO96" s="3"/>
-      <c r="AP96" s="7"/>
+      <c r="AP96" s="6"/>
       <c r="AQ96" s="3"/>
       <c r="AR96" s="3"/>
       <c r="AS96" s="3"/>
       <c r="AT96" s="3"/>
-      <c r="AU96" s="7"/>
+      <c r="AU96" s="6"/>
     </row>
     <row r="97" spans="1:47" ht="14.25">
       <c r="A97" s="3"/>
@@ -5399,25 +5402,25 @@
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="7"/>
+      <c r="G97" s="6"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="7"/>
+      <c r="L97" s="6"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
@@ -5431,7 +5434,7 @@
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
-      <c r="AM97" s="7"/>
+      <c r="AM97" s="6"/>
       <c r="AN97" s="3"/>
       <c r="AO97" s="3"/>
       <c r="AP97" s="3"/>
@@ -5439,7 +5442,7 @@
       <c r="AR97" s="3"/>
       <c r="AS97" s="3"/>
       <c r="AT97" s="3"/>
-      <c r="AU97" s="7"/>
+      <c r="AU97" s="6"/>
     </row>
     <row r="98" spans="1:47" ht="14.25">
       <c r="A98" s="3"/>
@@ -5448,25 +5451,25 @@
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="7"/>
+      <c r="G98" s="6"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
-      <c r="L98" s="7"/>
+      <c r="L98" s="6"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="7"/>
-      <c r="Y98" s="7"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
@@ -5475,20 +5478,20 @@
       <c r="AE98" s="3"/>
       <c r="AF98" s="3"/>
       <c r="AG98" s="3"/>
-      <c r="AH98" s="7"/>
+      <c r="AH98" s="6"/>
       <c r="AI98" s="3"/>
       <c r="AJ98" s="3"/>
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
-      <c r="AM98" s="7"/>
+      <c r="AM98" s="6"/>
       <c r="AN98" s="3"/>
       <c r="AO98" s="3"/>
-      <c r="AP98" s="7"/>
+      <c r="AP98" s="6"/>
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
       <c r="AS98" s="3"/>
       <c r="AT98" s="3"/>
-      <c r="AU98" s="7"/>
+      <c r="AU98" s="6"/>
     </row>
     <row r="99" spans="1:47" ht="14.25">
       <c r="A99" s="3"/>
@@ -5497,25 +5500,25 @@
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="7"/>
+      <c r="G99" s="6"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="7"/>
+      <c r="L99" s="6"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="7"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="7"/>
-      <c r="Y99" s="7"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
@@ -5529,7 +5532,7 @@
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
-      <c r="AM99" s="7"/>
+      <c r="AM99" s="6"/>
       <c r="AN99" s="3"/>
       <c r="AO99" s="3"/>
       <c r="AP99" s="3"/>
@@ -5537,7 +5540,7 @@
       <c r="AR99" s="3"/>
       <c r="AS99" s="3"/>
       <c r="AT99" s="3"/>
-      <c r="AU99" s="7"/>
+      <c r="AU99" s="6"/>
     </row>
     <row r="100" spans="1:47" ht="14.25">
       <c r="A100" s="3"/>
@@ -5546,25 +5549,25 @@
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="7"/>
+      <c r="G100" s="6"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-      <c r="L100" s="7"/>
+      <c r="L100" s="6"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
-      <c r="W100" s="7"/>
-      <c r="X100" s="7"/>
-      <c r="Y100" s="7"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
@@ -5572,21 +5575,21 @@
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
       <c r="AF100" s="3"/>
-      <c r="AG100" s="6"/>
+      <c r="AG100" s="5"/>
       <c r="AH100" s="3"/>
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
-      <c r="AM100" s="7"/>
+      <c r="AM100" s="6"/>
       <c r="AN100" s="3"/>
       <c r="AO100" s="3"/>
-      <c r="AP100" s="7"/>
+      <c r="AP100" s="6"/>
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
       <c r="AS100" s="3"/>
       <c r="AT100" s="3"/>
-      <c r="AU100" s="7"/>
+      <c r="AU100" s="6"/>
     </row>
     <row r="101" spans="1:47" ht="14.25">
       <c r="A101" s="3"/>
@@ -5595,25 +5598,25 @@
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="7"/>
+      <c r="G101" s="6"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="7"/>
+      <c r="L101" s="6"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
-      <c r="Y101" s="7"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
@@ -5627,7 +5630,7 @@
       <c r="AJ101" s="3"/>
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
-      <c r="AM101" s="7"/>
+      <c r="AM101" s="6"/>
       <c r="AN101" s="3"/>
       <c r="AO101" s="3"/>
       <c r="AP101" s="3"/>
@@ -5635,7 +5638,7 @@
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
       <c r="AT101" s="3"/>
-      <c r="AU101" s="7"/>
+      <c r="AU101" s="6"/>
     </row>
     <row r="102" spans="1:47" ht="14.25">
       <c r="A102" s="3"/>
@@ -5644,25 +5647,25 @@
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="7"/>
+      <c r="G102" s="6"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="7"/>
+      <c r="L102" s="6"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="7"/>
-      <c r="T102" s="7"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
-      <c r="W102" s="7"/>
-      <c r="X102" s="7"/>
-      <c r="Y102" s="7"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+      <c r="Y102" s="6"/>
       <c r="Z102" s="3"/>
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
@@ -5676,7 +5679,7 @@
       <c r="AJ102" s="3"/>
       <c r="AK102" s="3"/>
       <c r="AL102" s="3"/>
-      <c r="AM102" s="7"/>
+      <c r="AM102" s="6"/>
       <c r="AN102" s="3"/>
       <c r="AO102" s="3"/>
       <c r="AP102" s="3"/>
@@ -5684,7 +5687,7 @@
       <c r="AR102" s="3"/>
       <c r="AS102" s="3"/>
       <c r="AT102" s="3"/>
-      <c r="AU102" s="7"/>
+      <c r="AU102" s="6"/>
     </row>
     <row r="103" spans="1:47" ht="14.25">
       <c r="A103" s="3"/>
@@ -5693,47 +5696,47 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="7"/>
+      <c r="G103" s="6"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="7"/>
+      <c r="L103" s="6"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="7"/>
-      <c r="Y103" s="7"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
       <c r="AE103" s="3"/>
-      <c r="AF103" s="7"/>
+      <c r="AF103" s="6"/>
       <c r="AG103" s="3"/>
       <c r="AH103" s="3"/>
       <c r="AI103" s="3"/>
       <c r="AJ103" s="3"/>
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
-      <c r="AM103" s="7"/>
-      <c r="AN103" s="7"/>
+      <c r="AM103" s="6"/>
+      <c r="AN103" s="6"/>
       <c r="AO103" s="3"/>
       <c r="AP103" s="3"/>
       <c r="AQ103" s="3"/>
       <c r="AR103" s="3"/>
       <c r="AS103" s="3"/>
       <c r="AT103" s="3"/>
-      <c r="AU103" s="7"/>
+      <c r="AU103" s="6"/>
     </row>
     <row r="104" spans="1:47" ht="14.25">
       <c r="A104" s="3"/>
@@ -5742,25 +5745,25 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="7"/>
+      <c r="G104" s="6"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="7"/>
+      <c r="L104" s="6"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7"/>
-      <c r="T104" s="7"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
-      <c r="W104" s="7"/>
-      <c r="X104" s="7"/>
-      <c r="Y104" s="7"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+      <c r="Y104" s="6"/>
       <c r="Z104" s="3"/>
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
@@ -5774,15 +5777,15 @@
       <c r="AJ104" s="3"/>
       <c r="AK104" s="3"/>
       <c r="AL104" s="3"/>
-      <c r="AM104" s="7"/>
+      <c r="AM104" s="6"/>
       <c r="AN104" s="3"/>
       <c r="AO104" s="3"/>
-      <c r="AP104" s="7"/>
+      <c r="AP104" s="6"/>
       <c r="AQ104" s="3"/>
       <c r="AR104" s="3"/>
       <c r="AS104" s="3"/>
       <c r="AT104" s="3"/>
-      <c r="AU104" s="7"/>
+      <c r="AU104" s="6"/>
     </row>
     <row r="105" spans="1:47" ht="14.25">
       <c r="A105" s="3"/>
@@ -5791,47 +5794,47 @@
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="7"/>
+      <c r="G105" s="6"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
-      <c r="L105" s="7"/>
+      <c r="L105" s="6"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="7"/>
-      <c r="T105" s="7"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
-      <c r="W105" s="7"/>
-      <c r="X105" s="7"/>
-      <c r="Y105" s="7"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="6"/>
+      <c r="Y105" s="6"/>
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
-      <c r="AF105" s="7"/>
+      <c r="AF105" s="6"/>
       <c r="AG105" s="3"/>
       <c r="AH105" s="3"/>
       <c r="AI105" s="3"/>
       <c r="AJ105" s="3"/>
       <c r="AK105" s="3"/>
       <c r="AL105" s="3"/>
-      <c r="AM105" s="7"/>
-      <c r="AN105" s="7"/>
+      <c r="AM105" s="6"/>
+      <c r="AN105" s="6"/>
       <c r="AO105" s="3"/>
       <c r="AP105" s="3"/>
       <c r="AQ105" s="3"/>
       <c r="AR105" s="3"/>
       <c r="AS105" s="3"/>
       <c r="AT105" s="3"/>
-      <c r="AU105" s="7"/>
+      <c r="AU105" s="6"/>
     </row>
     <row r="106" spans="1:47" ht="14.25">
       <c r="A106" s="3"/>
@@ -5840,25 +5843,25 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="7"/>
+      <c r="G106" s="6"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="7"/>
+      <c r="L106" s="6"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="7"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
-      <c r="W106" s="7"/>
-      <c r="X106" s="7"/>
-      <c r="Y106" s="7"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
       <c r="Z106" s="3"/>
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
@@ -5872,7 +5875,7 @@
       <c r="AJ106" s="3"/>
       <c r="AK106" s="3"/>
       <c r="AL106" s="3"/>
-      <c r="AM106" s="7"/>
+      <c r="AM106" s="6"/>
       <c r="AN106" s="3"/>
       <c r="AO106" s="3"/>
       <c r="AP106" s="3"/>
@@ -5880,7 +5883,7 @@
       <c r="AR106" s="3"/>
       <c r="AS106" s="3"/>
       <c r="AT106" s="3"/>
-      <c r="AU106" s="7"/>
+      <c r="AU106" s="6"/>
     </row>
     <row r="107" spans="1:47" ht="14.25">
       <c r="A107" s="3"/>
@@ -5889,29 +5892,29 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="7"/>
+      <c r="G107" s="6"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="7"/>
+      <c r="L107" s="6"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="7"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
-      <c r="W107" s="7"/>
-      <c r="X107" s="7"/>
-      <c r="Y107" s="7"/>
+      <c r="W107" s="6"/>
+      <c r="X107" s="6"/>
+      <c r="Y107" s="6"/>
       <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
-      <c r="AC107" s="6"/>
+      <c r="AC107" s="5"/>
       <c r="AD107" s="3"/>
       <c r="AE107" s="3"/>
       <c r="AF107" s="3"/>
@@ -5921,7 +5924,7 @@
       <c r="AJ107" s="3"/>
       <c r="AK107" s="3"/>
       <c r="AL107" s="3"/>
-      <c r="AM107" s="7"/>
+      <c r="AM107" s="6"/>
       <c r="AN107" s="3"/>
       <c r="AO107" s="3"/>
       <c r="AP107" s="3"/>
@@ -5929,7 +5932,7 @@
       <c r="AR107" s="3"/>
       <c r="AS107" s="3"/>
       <c r="AT107" s="3"/>
-      <c r="AU107" s="7"/>
+      <c r="AU107" s="6"/>
     </row>
     <row r="108" spans="1:47" ht="14.25">
       <c r="A108" s="3"/>
@@ -5938,25 +5941,25 @@
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="7"/>
+      <c r="G108" s="6"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="7"/>
+      <c r="L108" s="6"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
-      <c r="W108" s="7"/>
-      <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
+      <c r="Y108" s="6"/>
       <c r="Z108" s="3"/>
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
@@ -5965,20 +5968,20 @@
       <c r="AE108" s="3"/>
       <c r="AF108" s="3"/>
       <c r="AG108" s="3"/>
-      <c r="AH108" s="7"/>
+      <c r="AH108" s="6"/>
       <c r="AI108" s="3"/>
       <c r="AJ108" s="3"/>
       <c r="AK108" s="3"/>
       <c r="AL108" s="3"/>
-      <c r="AM108" s="7"/>
+      <c r="AM108" s="6"/>
       <c r="AN108" s="3"/>
       <c r="AO108" s="3"/>
-      <c r="AP108" s="7"/>
+      <c r="AP108" s="6"/>
       <c r="AQ108" s="3"/>
       <c r="AR108" s="3"/>
       <c r="AS108" s="3"/>
       <c r="AT108" s="3"/>
-      <c r="AU108" s="7"/>
+      <c r="AU108" s="6"/>
     </row>
     <row r="109" spans="1:47" ht="14.25">
       <c r="A109" s="3"/>
@@ -5987,25 +5990,25 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="7"/>
+      <c r="G109" s="6"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="L109" s="7"/>
+      <c r="L109" s="6"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
-      <c r="W109" s="7"/>
-      <c r="X109" s="7"/>
-      <c r="Y109" s="7"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
@@ -6019,7 +6022,7 @@
       <c r="AJ109" s="3"/>
       <c r="AK109" s="3"/>
       <c r="AL109" s="3"/>
-      <c r="AM109" s="7"/>
+      <c r="AM109" s="6"/>
       <c r="AN109" s="3"/>
       <c r="AO109" s="3"/>
       <c r="AP109" s="3"/>
@@ -6027,7 +6030,7 @@
       <c r="AR109" s="3"/>
       <c r="AS109" s="3"/>
       <c r="AT109" s="3"/>
-      <c r="AU109" s="7"/>
+      <c r="AU109" s="6"/>
     </row>
     <row r="110" spans="1:47" ht="14.25">
       <c r="A110" s="3"/>
@@ -6036,47 +6039,47 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="7"/>
+      <c r="G110" s="6"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="7"/>
+      <c r="L110" s="6"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
-      <c r="W110" s="7"/>
-      <c r="X110" s="7"/>
-      <c r="Y110" s="7"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
       <c r="Z110" s="3"/>
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
       <c r="AE110" s="3"/>
-      <c r="AF110" s="7"/>
+      <c r="AF110" s="6"/>
       <c r="AG110" s="3"/>
       <c r="AH110" s="3"/>
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
       <c r="AK110" s="3"/>
       <c r="AL110" s="3"/>
-      <c r="AM110" s="7"/>
+      <c r="AM110" s="6"/>
       <c r="AN110" s="3"/>
-      <c r="AO110" s="6"/>
+      <c r="AO110" s="5"/>
       <c r="AP110" s="3"/>
       <c r="AQ110" s="3"/>
       <c r="AR110" s="3"/>
       <c r="AS110" s="3"/>
       <c r="AT110" s="3"/>
-      <c r="AU110" s="7"/>
+      <c r="AU110" s="6"/>
     </row>
     <row r="111" spans="1:47" ht="14.25">
       <c r="A111" s="3"/>
@@ -6085,25 +6088,25 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="7"/>
+      <c r="G111" s="6"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="7"/>
+      <c r="L111" s="6"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="7"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
-      <c r="W111" s="7"/>
-      <c r="X111" s="7"/>
-      <c r="Y111" s="7"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
+      <c r="Y111" s="6"/>
       <c r="Z111" s="3"/>
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
@@ -6117,7 +6120,7 @@
       <c r="AJ111" s="3"/>
       <c r="AK111" s="3"/>
       <c r="AL111" s="3"/>
-      <c r="AM111" s="7"/>
+      <c r="AM111" s="6"/>
       <c r="AN111" s="3"/>
       <c r="AO111" s="3"/>
       <c r="AP111" s="3"/>
@@ -6125,7 +6128,7 @@
       <c r="AR111" s="3"/>
       <c r="AS111" s="3"/>
       <c r="AT111" s="3"/>
-      <c r="AU111" s="7"/>
+      <c r="AU111" s="6"/>
     </row>
     <row r="112" spans="1:47" ht="14.25">
       <c r="A112" s="3"/>
@@ -6134,25 +6137,25 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="7"/>
+      <c r="G112" s="6"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="7"/>
+      <c r="L112" s="6"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
-      <c r="W112" s="7"/>
-      <c r="X112" s="7"/>
-      <c r="Y112" s="7"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
       <c r="Z112" s="3"/>
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
@@ -6166,7 +6169,7 @@
       <c r="AJ112" s="3"/>
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
-      <c r="AM112" s="7"/>
+      <c r="AM112" s="6"/>
       <c r="AN112" s="3"/>
       <c r="AO112" s="3"/>
       <c r="AP112" s="3"/>
@@ -6174,7 +6177,7 @@
       <c r="AR112" s="3"/>
       <c r="AS112" s="3"/>
       <c r="AT112" s="3"/>
-      <c r="AU112" s="7"/>
+      <c r="AU112" s="6"/>
     </row>
     <row r="113" spans="1:47" ht="14.25">
       <c r="A113" s="3"/>
@@ -6183,26 +6186,26 @@
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="7"/>
+      <c r="G113" s="6"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="7"/>
+      <c r="L113" s="6"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="7"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
-      <c r="W113" s="7"/>
-      <c r="X113" s="7"/>
-      <c r="Y113" s="7"/>
-      <c r="Z113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="5"/>
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
@@ -6215,7 +6218,7 @@
       <c r="AJ113" s="3"/>
       <c r="AK113" s="3"/>
       <c r="AL113" s="3"/>
-      <c r="AM113" s="7"/>
+      <c r="AM113" s="6"/>
       <c r="AN113" s="3"/>
       <c r="AO113" s="3"/>
       <c r="AP113" s="3"/>
@@ -6223,7 +6226,7 @@
       <c r="AR113" s="3"/>
       <c r="AS113" s="3"/>
       <c r="AT113" s="3"/>
-      <c r="AU113" s="7"/>
+      <c r="AU113" s="6"/>
     </row>
     <row r="114" spans="1:47" ht="14.25">
       <c r="A114" s="3"/>
@@ -6232,25 +6235,25 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="7"/>
+      <c r="G114" s="6"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="7"/>
+      <c r="L114" s="6"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="7"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
-      <c r="W114" s="7"/>
-      <c r="X114" s="7"/>
-      <c r="Y114" s="7"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
       <c r="Z114" s="3"/>
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
@@ -6264,7 +6267,7 @@
       <c r="AJ114" s="3"/>
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
-      <c r="AM114" s="7"/>
+      <c r="AM114" s="6"/>
       <c r="AN114" s="3"/>
       <c r="AO114" s="3"/>
       <c r="AP114" s="3"/>
@@ -6272,7 +6275,7 @@
       <c r="AR114" s="3"/>
       <c r="AS114" s="3"/>
       <c r="AT114" s="3"/>
-      <c r="AU114" s="7"/>
+      <c r="AU114" s="6"/>
     </row>
     <row r="115" spans="1:47" ht="14.25">
       <c r="A115" s="3"/>
@@ -6281,25 +6284,25 @@
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="7"/>
+      <c r="G115" s="6"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="7"/>
+      <c r="L115" s="6"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
-      <c r="W115" s="7"/>
-      <c r="X115" s="7"/>
-      <c r="Y115" s="7"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="6"/>
       <c r="Z115" s="3"/>
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
@@ -6313,7 +6316,7 @@
       <c r="AJ115" s="3"/>
       <c r="AK115" s="3"/>
       <c r="AL115" s="3"/>
-      <c r="AM115" s="7"/>
+      <c r="AM115" s="6"/>
       <c r="AN115" s="3"/>
       <c r="AO115" s="3"/>
       <c r="AP115" s="3"/>
@@ -6321,7 +6324,7 @@
       <c r="AR115" s="3"/>
       <c r="AS115" s="3"/>
       <c r="AT115" s="3"/>
-      <c r="AU115" s="7"/>
+      <c r="AU115" s="6"/>
     </row>
     <row r="116" spans="1:47" ht="14.25">
       <c r="A116" s="3"/>
@@ -6330,47 +6333,47 @@
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="7"/>
+      <c r="G116" s="6"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
-      <c r="L116" s="7"/>
+      <c r="L116" s="6"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
-      <c r="W116" s="7"/>
-      <c r="X116" s="7"/>
-      <c r="Y116" s="7"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6"/>
+      <c r="Y116" s="6"/>
       <c r="Z116" s="3"/>
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
       <c r="AE116" s="3"/>
-      <c r="AF116" s="7"/>
+      <c r="AF116" s="6"/>
       <c r="AG116" s="3"/>
       <c r="AH116" s="3"/>
       <c r="AI116" s="3"/>
       <c r="AJ116" s="3"/>
       <c r="AK116" s="3"/>
       <c r="AL116" s="3"/>
-      <c r="AM116" s="7"/>
-      <c r="AN116" s="7"/>
+      <c r="AM116" s="6"/>
+      <c r="AN116" s="6"/>
       <c r="AO116" s="3"/>
       <c r="AP116" s="3"/>
       <c r="AQ116" s="3"/>
       <c r="AR116" s="3"/>
       <c r="AS116" s="3"/>
       <c r="AT116" s="3"/>
-      <c r="AU116" s="7"/>
+      <c r="AU116" s="6"/>
     </row>
     <row r="117" spans="1:47" ht="14.25">
       <c r="A117" s="3"/>
@@ -6379,25 +6382,25 @@
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="7"/>
+      <c r="G117" s="6"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
-      <c r="L117" s="7"/>
+      <c r="L117" s="6"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
-      <c r="W117" s="7"/>
-      <c r="X117" s="7"/>
-      <c r="Y117" s="7"/>
+      <c r="W117" s="6"/>
+      <c r="X117" s="6"/>
+      <c r="Y117" s="6"/>
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
@@ -6406,20 +6409,20 @@
       <c r="AE117" s="3"/>
       <c r="AF117" s="3"/>
       <c r="AG117" s="3"/>
-      <c r="AH117" s="7"/>
+      <c r="AH117" s="6"/>
       <c r="AI117" s="3"/>
       <c r="AJ117" s="3"/>
       <c r="AK117" s="3"/>
       <c r="AL117" s="3"/>
-      <c r="AM117" s="7"/>
+      <c r="AM117" s="6"/>
       <c r="AN117" s="3"/>
       <c r="AO117" s="3"/>
-      <c r="AP117" s="7"/>
+      <c r="AP117" s="6"/>
       <c r="AQ117" s="3"/>
       <c r="AR117" s="3"/>
       <c r="AS117" s="3"/>
       <c r="AT117" s="3"/>
-      <c r="AU117" s="7"/>
+      <c r="AU117" s="6"/>
     </row>
     <row r="118" spans="1:47" ht="14.25">
       <c r="A118" s="3"/>
@@ -6428,25 +6431,25 @@
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="7"/>
+      <c r="G118" s="6"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
-      <c r="L118" s="7"/>
+      <c r="L118" s="6"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
-      <c r="W118" s="7"/>
-      <c r="X118" s="7"/>
-      <c r="Y118" s="7"/>
+      <c r="W118" s="6"/>
+      <c r="X118" s="6"/>
+      <c r="Y118" s="6"/>
       <c r="Z118" s="3"/>
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
@@ -6460,7 +6463,7 @@
       <c r="AJ118" s="3"/>
       <c r="AK118" s="3"/>
       <c r="AL118" s="3"/>
-      <c r="AM118" s="7"/>
+      <c r="AM118" s="6"/>
       <c r="AN118" s="3"/>
       <c r="AO118" s="3"/>
       <c r="AP118" s="3"/>
@@ -6468,7 +6471,7 @@
       <c r="AR118" s="3"/>
       <c r="AS118" s="3"/>
       <c r="AT118" s="3"/>
-      <c r="AU118" s="7"/>
+      <c r="AU118" s="6"/>
     </row>
     <row r="119" spans="1:47" ht="14.25">
       <c r="A119" s="3"/>
@@ -6477,47 +6480,47 @@
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="7"/>
+      <c r="G119" s="6"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
-      <c r="L119" s="7"/>
+      <c r="L119" s="6"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
-      <c r="W119" s="7"/>
-      <c r="X119" s="7"/>
-      <c r="Y119" s="7"/>
+      <c r="W119" s="6"/>
+      <c r="X119" s="6"/>
+      <c r="Y119" s="6"/>
       <c r="Z119" s="3"/>
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
       <c r="AE119" s="3"/>
-      <c r="AF119" s="7"/>
+      <c r="AF119" s="6"/>
       <c r="AG119" s="3"/>
       <c r="AH119" s="3"/>
       <c r="AI119" s="3"/>
       <c r="AJ119" s="3"/>
       <c r="AK119" s="3"/>
       <c r="AL119" s="3"/>
-      <c r="AM119" s="7"/>
-      <c r="AN119" s="7"/>
+      <c r="AM119" s="6"/>
+      <c r="AN119" s="6"/>
       <c r="AO119" s="3"/>
       <c r="AP119" s="3"/>
       <c r="AQ119" s="3"/>
       <c r="AR119" s="3"/>
       <c r="AS119" s="3"/>
       <c r="AT119" s="3"/>
-      <c r="AU119" s="7"/>
+      <c r="AU119" s="6"/>
     </row>
     <row r="120" spans="1:47" ht="14.25">
       <c r="A120" s="3"/>
@@ -6526,25 +6529,25 @@
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="7"/>
+      <c r="G120" s="6"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
-      <c r="L120" s="7"/>
+      <c r="L120" s="6"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="7"/>
-      <c r="T120" s="7"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
-      <c r="W120" s="7"/>
-      <c r="X120" s="7"/>
-      <c r="Y120" s="7"/>
+      <c r="W120" s="6"/>
+      <c r="X120" s="6"/>
+      <c r="Y120" s="6"/>
       <c r="Z120" s="3"/>
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
@@ -6558,7 +6561,7 @@
       <c r="AJ120" s="3"/>
       <c r="AK120" s="3"/>
       <c r="AL120" s="3"/>
-      <c r="AM120" s="7"/>
+      <c r="AM120" s="6"/>
       <c r="AN120" s="3"/>
       <c r="AO120" s="3"/>
       <c r="AP120" s="3"/>
@@ -6566,7 +6569,7 @@
       <c r="AR120" s="3"/>
       <c r="AS120" s="3"/>
       <c r="AT120" s="3"/>
-      <c r="AU120" s="7"/>
+      <c r="AU120" s="6"/>
     </row>
     <row r="121" spans="1:47" ht="14.25">
       <c r="A121" s="3"/>
@@ -6575,25 +6578,25 @@
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="7"/>
+      <c r="G121" s="6"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
-      <c r="L121" s="7"/>
+      <c r="L121" s="6"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
-      <c r="W121" s="7"/>
-      <c r="X121" s="7"/>
-      <c r="Y121" s="7"/>
+      <c r="W121" s="6"/>
+      <c r="X121" s="6"/>
+      <c r="Y121" s="6"/>
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
@@ -6607,15 +6610,15 @@
       <c r="AJ121" s="3"/>
       <c r="AK121" s="3"/>
       <c r="AL121" s="3"/>
-      <c r="AM121" s="7"/>
+      <c r="AM121" s="6"/>
       <c r="AN121" s="3"/>
-      <c r="AO121" s="6"/>
+      <c r="AO121" s="5"/>
       <c r="AP121" s="3"/>
       <c r="AQ121" s="3"/>
       <c r="AR121" s="3"/>
       <c r="AS121" s="3"/>
       <c r="AT121" s="3"/>
-      <c r="AU121" s="7"/>
+      <c r="AU121" s="6"/>
     </row>
     <row r="122" spans="1:47" ht="14.25">
       <c r="A122" s="3"/>
@@ -6624,25 +6627,25 @@
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="7"/>
+      <c r="G122" s="6"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
-      <c r="L122" s="7"/>
+      <c r="L122" s="6"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="7"/>
-      <c r="T122" s="7"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
-      <c r="W122" s="7"/>
-      <c r="X122" s="7"/>
-      <c r="Y122" s="7"/>
+      <c r="W122" s="6"/>
+      <c r="X122" s="6"/>
+      <c r="Y122" s="6"/>
       <c r="Z122" s="3"/>
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
@@ -6656,7 +6659,7 @@
       <c r="AJ122" s="3"/>
       <c r="AK122" s="3"/>
       <c r="AL122" s="3"/>
-      <c r="AM122" s="7"/>
+      <c r="AM122" s="6"/>
       <c r="AN122" s="3"/>
       <c r="AO122" s="3"/>
       <c r="AP122" s="3"/>
@@ -6664,7 +6667,7 @@
       <c r="AR122" s="3"/>
       <c r="AS122" s="3"/>
       <c r="AT122" s="3"/>
-      <c r="AU122" s="7"/>
+      <c r="AU122" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6672,6 +6675,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DE4E80213DA84488C6746DA7F5435AE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec63872895b5e383a78658333cd882a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8381ea7a-861e-40ec-9353-0740a94f5ba9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66f636f09ab632ed23354683a0ee0b30" ns2:_="">
     <xsd:import namespace="8381ea7a-861e-40ec-9353-0740a94f5ba9"/>
@@ -6829,29 +6841,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82D8E57-24CB-469A-8CF9-DC8023A4F6CE}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FF590E-B8FC-46F8-ADA2-E8748484563D}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C10B6AA-D301-4626-8C5C-73E8A0787AFD}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82D8E57-24CB-469A-8CF9-DC8023A4F6CE}"/>
 </file>
--- a/public/file_import/students.xlsx
+++ b/public/file_import/students.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E289991-18CA-4E0F-B2B0-DE6912430306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{014C8664-BEDD-4AC1-88C7-9A77DAA90A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -166,6 +166,120 @@
   </si>
   <si>
     <t>registered_postcode</t>
+  </si>
+  <si>
+    <t>1559900345772</t>
+  </si>
+  <si>
+    <t>อนุบาล 1</t>
+  </si>
+  <si>
+    <t>อนุบาล 1/1</t>
+  </si>
+  <si>
+    <t>ด.ช.</t>
+  </si>
+  <si>
+    <t>เตชิณ</t>
+  </si>
+  <si>
+    <t>วณิชติสุวรรณ</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Tejin</t>
+  </si>
+  <si>
+    <t>Wanichtisuwan</t>
+  </si>
+  <si>
+    <t>1509967248304</t>
+  </si>
+  <si>
+    <t>ชาย</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2017-04-21</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>พุทธ</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ภูมิแพ้</t>
+  </si>
+  <si>
+    <t>ระมัดระวังเรื่องการใช้ยาก เพราะน้อง มี G6PD</t>
+  </si>
+  <si>
+    <t>สบู่อาบน้ำทั่วไป</t>
+  </si>
+  <si>
+    <t>ไม่มี</t>
+  </si>
+  <si>
+    <t>อาหารทะเล เช่น กุ้ง กั้ง ปู</t>
+  </si>
+  <si>
+    <t>ผ่าตัดอาการไส้เลื่อนในเด็กเล็ก เมื่อวันที่ 1 ตุลาคม 2561 ณ รพ.มหาราชนครเชียงใหม่</t>
+  </si>
+  <si>
+    <t>211/193  หมู่ 2</t>
+  </si>
+  <si>
+    <t>หมู่บ้านสีวลีคลองชลฯ</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>เลียบคลองชลประทาน</t>
+  </si>
+  <si>
+    <t>แม่เหียะ</t>
+  </si>
+  <si>
+    <t>เมืองเชียงใหม่</t>
+  </si>
+  <si>
+    <t>เชียงใหม่</t>
+  </si>
+  <si>
+    <t>50100</t>
+  </si>
+  <si>
+    <t>124  หมู่ 2</t>
+  </si>
+  <si>
+    <t>บ้านเเซม</t>
+  </si>
+  <si>
+    <t>ป่าเป้าซอย2/3</t>
+  </si>
+  <si>
+    <t>ลำพูน-ลี้</t>
+  </si>
+  <si>
+    <t>ม่วงน้อย</t>
+  </si>
+  <si>
+    <t>ป่าซาง</t>
+  </si>
+  <si>
+    <t>ลำพูน</t>
+  </si>
+  <si>
+    <t>51120</t>
   </si>
 </sst>
 </file>
@@ -547,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AP5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -556,34 +670,38 @@
     <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.25" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.25" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.25" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="58" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15.375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11.875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13.125" bestFit="1" customWidth="1"/>
@@ -741,53 +859,143 @@
       </c>
     </row>
     <row r="2" spans="1:47" ht="14.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4">
+        <v>14661</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="7"/>
+      <c r="O2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:47" ht="14.25">
       <c r="A3" s="3"/>
@@ -6675,6 +6883,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6683,7 +6897,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DE4E80213DA84488C6746DA7F5435AE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec63872895b5e383a78658333cd882a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8381ea7a-861e-40ec-9353-0740a94f5ba9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66f636f09ab632ed23354683a0ee0b30" ns2:_="">
     <xsd:import namespace="8381ea7a-861e-40ec-9353-0740a94f5ba9"/>
@@ -6841,20 +7055,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C10B6AA-D301-4626-8C5C-73E8A0787AFD}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82D8E57-24CB-469A-8CF9-DC8023A4F6CE}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FF590E-B8FC-46F8-ADA2-E8748484563D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C10B6AA-D301-4626-8C5C-73E8A0787AFD}"/>
 </file>
--- a/public/file_import/students.xlsx
+++ b/public/file_import/students.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23011"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE7C22C-6777-457D-A330-B28E2ABAB3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE0938F-5260-4F3B-9920-1CE3017DAD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+  <si>
+    <t>ไฟล์สำหรับนำเข้าข้อมูลนักเรียนในโรงเรียน</t>
+  </si>
   <si>
     <t>จำเป็นต้องกรอก</t>
   </si>
@@ -166,8 +169,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,13 +219,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,8 +268,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,1928 +558,1933 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.625" customWidth="1"/>
+    <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+    </row>
+    <row r="2" spans="1:21" s="13" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="P3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Q3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="20.25" customHeight="1">
-      <c r="B2" s="3">
+      <c r="U3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4">
         <v>14661</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4">
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="K4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="7" t="s">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="P4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="20.25" customHeight="1">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="1:22" ht="20.25" customHeight="1">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="20.25" customHeight="1">
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" ht="20.25" customHeight="1">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
+      <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="3"/>
-    </row>
-    <row r="42" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="3"/>
-    </row>
-    <row r="44" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="3"/>
-    </row>
-    <row r="45" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="3"/>
-    </row>
-    <row r="46" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="3"/>
-    </row>
-    <row r="48" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U48" s="3"/>
+    </row>
+    <row r="49" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U49" s="3"/>
+    </row>
+    <row r="50" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="3"/>
-    </row>
-    <row r="51" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U50" s="3"/>
+    </row>
+    <row r="51" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U51" s="3"/>
+    </row>
+    <row r="52" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U52" s="3"/>
+    </row>
+    <row r="53" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+      <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="3"/>
-    </row>
-    <row r="55" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U54" s="3"/>
+    </row>
+    <row r="55" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
+      <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
+      <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U57" s="3"/>
+    </row>
+    <row r="58" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
+      <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
+      <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U59" s="3"/>
+    </row>
+    <row r="60" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
+      <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
+      <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="3"/>
-    </row>
-    <row r="62" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+      <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="3"/>
-    </row>
-    <row r="63" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U62" s="3"/>
+    </row>
+    <row r="63" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
+      <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="3"/>
-    </row>
-    <row r="64" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U63" s="3"/>
+    </row>
+    <row r="64" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
+      <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="3"/>
-    </row>
-    <row r="65" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U64" s="3"/>
+    </row>
+    <row r="65" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
+      <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="3"/>
-    </row>
-    <row r="66" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U65" s="3"/>
+    </row>
+    <row r="66" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
+      <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="3"/>
-    </row>
-    <row r="67" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U66" s="3"/>
+    </row>
+    <row r="67" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
+      <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
+      <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="3"/>
-    </row>
-    <row r="69" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U68" s="3"/>
+    </row>
+    <row r="69" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
+      <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="3"/>
-    </row>
-    <row r="70" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U69" s="3"/>
+    </row>
+    <row r="70" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
+      <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="3"/>
-    </row>
-    <row r="71" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U70" s="3"/>
+    </row>
+    <row r="71" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
+      <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="3"/>
-    </row>
-    <row r="72" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U71" s="3"/>
+    </row>
+    <row r="72" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="5"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
+      <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="3"/>
-    </row>
-    <row r="73" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U72" s="3"/>
+    </row>
+    <row r="73" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
+      <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="3"/>
-    </row>
-    <row r="74" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U73" s="3"/>
+    </row>
+    <row r="74" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="5"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
+      <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="3"/>
-    </row>
-    <row r="75" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U74" s="3"/>
+    </row>
+    <row r="75" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
+      <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="3"/>
-    </row>
-    <row r="76" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U75" s="3"/>
+    </row>
+    <row r="76" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
+      <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="3"/>
-    </row>
-    <row r="77" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U76" s="3"/>
+    </row>
+    <row r="77" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="3"/>
-    </row>
-    <row r="78" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U77" s="3"/>
+    </row>
+    <row r="78" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
+      <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="3"/>
-    </row>
-    <row r="79" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U78" s="3"/>
+    </row>
+    <row r="79" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
@@ -2463,1004 +2492,1071 @@
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="3"/>
-    </row>
-    <row r="80" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U79" s="3"/>
+    </row>
+    <row r="80" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
+      <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="3"/>
-    </row>
-    <row r="81" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U80" s="3"/>
+    </row>
+    <row r="81" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
+      <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="3"/>
-    </row>
-    <row r="82" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U81" s="3"/>
+    </row>
+    <row r="82" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
+      <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
+      <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="3"/>
-    </row>
-    <row r="84" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U83" s="3"/>
+    </row>
+    <row r="84" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
+      <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="3"/>
-    </row>
-    <row r="85" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U84" s="3"/>
+    </row>
+    <row r="85" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
+      <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="3"/>
-    </row>
-    <row r="86" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U85" s="3"/>
+    </row>
+    <row r="86" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
+      <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U86" s="3"/>
+    </row>
+    <row r="87" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
+      <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="3"/>
-    </row>
-    <row r="88" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U87" s="3"/>
+    </row>
+    <row r="88" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
+      <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="3"/>
-    </row>
-    <row r="89" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U88" s="3"/>
+    </row>
+    <row r="89" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
+      <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="3"/>
-    </row>
-    <row r="90" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U89" s="3"/>
+    </row>
+    <row r="90" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
+      <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
+      <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="3"/>
-    </row>
-    <row r="92" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U91" s="3"/>
+    </row>
+    <row r="92" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
+      <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="3"/>
-    </row>
-    <row r="93" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U92" s="3"/>
+    </row>
+    <row r="93" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
+      <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="3"/>
-    </row>
-    <row r="94" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U93" s="3"/>
+    </row>
+    <row r="94" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A94" s="3"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
+      <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="3"/>
-    </row>
-    <row r="95" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U94" s="3"/>
+    </row>
+    <row r="95" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A95" s="3"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="5"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
+      <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A96" s="3"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
+      <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="3"/>
-    </row>
-    <row r="97" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U96" s="3"/>
+    </row>
+    <row r="97" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="5"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
+      <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="3"/>
-    </row>
-    <row r="98" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U97" s="3"/>
+    </row>
+    <row r="98" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
+      <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="3"/>
-    </row>
-    <row r="99" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U98" s="3"/>
+    </row>
+    <row r="99" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
+      <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="3"/>
-    </row>
-    <row r="100" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U99" s="3"/>
+    </row>
+    <row r="100" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A100" s="3"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
+      <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="3"/>
-    </row>
-    <row r="101" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U100" s="3"/>
+    </row>
+    <row r="101" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A101" s="3"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
+      <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="3"/>
-    </row>
-    <row r="102" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U101" s="3"/>
+    </row>
+    <row r="102" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
+      <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="3"/>
-    </row>
-    <row r="103" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U102" s="3"/>
+    </row>
+    <row r="103" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
+      <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
-      <c r="U103" s="6"/>
-      <c r="V103" s="3"/>
-    </row>
-    <row r="104" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U103" s="3"/>
+    </row>
+    <row r="104" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
+      <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
-      <c r="U104" s="6"/>
-      <c r="V104" s="3"/>
-    </row>
-    <row r="105" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U104" s="3"/>
+    </row>
+    <row r="105" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
+      <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
-      <c r="U105" s="6"/>
-      <c r="V105" s="3"/>
-    </row>
-    <row r="106" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U105" s="3"/>
+    </row>
+    <row r="106" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
+      <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
-      <c r="U106" s="6"/>
-      <c r="V106" s="3"/>
-    </row>
-    <row r="107" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U106" s="3"/>
+    </row>
+    <row r="107" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A107" s="3"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
+      <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
-      <c r="U107" s="6"/>
-      <c r="V107" s="3"/>
-    </row>
-    <row r="108" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U107" s="3"/>
+    </row>
+    <row r="108" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
+      <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
-      <c r="U108" s="6"/>
-      <c r="V108" s="3"/>
-    </row>
-    <row r="109" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U108" s="3"/>
+    </row>
+    <row r="109" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
-      <c r="Q109" s="3"/>
+      <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-      <c r="V109" s="3"/>
-    </row>
-    <row r="110" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U109" s="3"/>
+    </row>
+    <row r="110" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
+      <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="3"/>
-    </row>
-    <row r="111" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U110" s="3"/>
+    </row>
+    <row r="111" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
+      <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
-      <c r="U111" s="6"/>
-      <c r="V111" s="3"/>
-    </row>
-    <row r="112" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U111" s="3"/>
+    </row>
+    <row r="112" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
+      <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
-      <c r="U112" s="6"/>
-      <c r="V112" s="3"/>
-    </row>
-    <row r="113" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U112" s="3"/>
+    </row>
+    <row r="113" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A113" s="3"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
+      <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
-      <c r="V113" s="3"/>
-    </row>
-    <row r="114" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U113" s="3"/>
+    </row>
+    <row r="114" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A114" s="3"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
+      <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
-      <c r="U114" s="6"/>
-      <c r="V114" s="3"/>
-    </row>
-    <row r="115" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U114" s="3"/>
+    </row>
+    <row r="115" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
+      <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>
-      <c r="U115" s="6"/>
-      <c r="V115" s="3"/>
-    </row>
-    <row r="116" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U115" s="3"/>
+    </row>
+    <row r="116" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
+      <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
-      <c r="U116" s="6"/>
-      <c r="V116" s="3"/>
-    </row>
-    <row r="117" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U116" s="3"/>
+    </row>
+    <row r="117" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
+      <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
-      <c r="U117" s="6"/>
-      <c r="V117" s="3"/>
-    </row>
-    <row r="118" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U117" s="3"/>
+    </row>
+    <row r="118" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A118" s="3"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
+      <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
-      <c r="U118" s="6"/>
-      <c r="V118" s="3"/>
-    </row>
-    <row r="119" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U118" s="3"/>
+    </row>
+    <row r="119" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A119" s="3"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
-      <c r="Q119" s="3"/>
+      <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
-      <c r="U119" s="6"/>
-      <c r="V119" s="3"/>
-    </row>
-    <row r="120" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U119" s="3"/>
+    </row>
+    <row r="120" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
+      <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
-      <c r="U120" s="6"/>
-      <c r="V120" s="3"/>
-    </row>
-    <row r="121" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U120" s="3"/>
+    </row>
+    <row r="121" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A121" s="3"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-      <c r="M121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
-      <c r="Q121" s="3"/>
+      <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
-      <c r="U121" s="6"/>
-      <c r="V121" s="3"/>
-    </row>
-    <row r="122" spans="2:22" ht="20.25" customHeight="1">
+      <c r="U121" s="3"/>
+    </row>
+    <row r="122" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A122" s="3"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
-      <c r="Q122" s="3"/>
+      <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
-      <c r="U122" s="6"/>
-      <c r="V122" s="3"/>
+      <c r="U122" s="3"/>
+    </row>
+    <row r="123" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6"/>
+      <c r="U123" s="3"/>
+    </row>
+    <row r="124" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+      <c r="U124" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="A1:U1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DE4E80213DA84488C6746DA7F5435AE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec63872895b5e383a78658333cd882a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8381ea7a-861e-40ec-9353-0740a94f5ba9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66f636f09ab632ed23354683a0ee0b30" ns2:_="">
     <xsd:import namespace="8381ea7a-861e-40ec-9353-0740a94f5ba9"/>
@@ -3618,23 +3714,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FF590E-B8FC-46F8-ADA2-E8748484563D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82D8E57-24CB-469A-8CF9-DC8023A4F6CE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3642,5 +3723,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82D8E57-24CB-469A-8CF9-DC8023A4F6CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FF590E-B8FC-46F8-ADA2-E8748484563D}"/>
 </file>
--- a/public/file_import/students.xlsx
+++ b/public/file_import/students.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23011"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE0938F-5260-4F3B-9920-1CE3017DAD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A03B8B-F4C2-4565-8170-5E83A2C5FA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>ไฟล์สำหรับนำเข้าข้อมูลนักเรียนในโรงเรียน</t>
   </si>
   <si>
+    <t>กรอกชื่อชั้นเรียนที่มีในโรงเรียน</t>
+  </si>
+  <si>
+    <t>กรอกชื่อห้องเรียนที่มีในโรงเรียน</t>
+  </si>
+  <si>
     <t>จำเป็นต้องกรอก</t>
+  </si>
+  <si>
+    <t>ชาย หญิง</t>
+  </si>
+  <si>
+    <t>ปี เดือน วัน</t>
   </si>
   <si>
     <t>ลำดับ</t>
@@ -142,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +182,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -234,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,20 +287,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
@@ -569,8 +594,8 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
@@ -614,98 +639,106 @@
       <c r="T1" s="14"/>
       <c r="U1" s="14"/>
     </row>
-    <row r="2" spans="1:21" s="13" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12" t="s">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="15"/>
+      <c r="E2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="T2" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.25" customHeight="1">
@@ -713,60 +746,60 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4">
         <v>14661</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="20.25" customHeight="1">
@@ -3530,11 +3563,9 @@
       <c r="U124" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:G2"/>
+  <mergeCells count="3">
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="R2:U2"/>
     <mergeCell ref="A1:U1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -3542,18 +3573,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3715,11 +3746,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82D8E57-24CB-469A-8CF9-DC8023A4F6CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C10B6AA-D301-4626-8C5C-73E8A0787AFD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C10B6AA-D301-4626-8C5C-73E8A0787AFD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82D8E57-24CB-469A-8CF9-DC8023A4F6CE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
